--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DDB054-2E40-3D45-A02D-499833FF5073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D379BB-BE4E-5D42-B4E1-887E1C1055C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -1910,6 +1910,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305B5053-95B6-F84D-A3B2-FF4C1036CBCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69409D92-8A77-EE40-91E6-459EF89997F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8620C18A-2EE1-2443-92C2-321EA7597EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2194,6 +2356,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D205CD-85C3-6946-8137-5C06FBF37990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C976F1-847A-BF4F-9EF4-E39D7AEA6D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69443980-3B8B-6947-990D-3949FC0E3BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2956,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D379BB-BE4E-5D42-B4E1-887E1C1055C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B941F6-95FF-5747-A297-3CFE0197507E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -2072,6 +2072,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C514741A-5539-4047-8B7A-A71F82CF216B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2691F900-684A-664E-AE1B-D86A7EA4ED87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF18CCF5-EB9F-5F4F-B1D5-F9C69693BAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2499,6 +2661,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D7A9FD-A931-5F47-ACCE-8C44B8BF523F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F566E6F-72B1-764F-BCFD-ED41E958D66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2801,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2967,11 +3237,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>125724.99999999999</v>
+        <v>152475</v>
       </c>
       <c r="H7" s="4">
-        <f>23500*5.35</f>
-        <v>125724.99999999999</v>
+        <f>28500*5.35</f>
+        <v>152475</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2986,7 +3256,7 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>179012.96</v>
+        <v>205762.96</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
@@ -3124,14 +3394,10 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="H14" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="4">
-        <v>10000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
@@ -3144,7 +3410,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -3158,8 +3424,8 @@
         <v>33</v>
       </c>
       <c r="B16" s="2">
-        <f>29000-5500</f>
-        <v>23500</v>
+        <f>34000-5500</f>
+        <v>28500</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>34</v>
@@ -3191,7 +3457,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>481824.08999999997</v>
+        <v>488574.08999999997</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3226,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3281,7 +3547,7 @@
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>125724.99999999999</v>
+        <v>152475</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
@@ -3309,7 +3575,7 @@
       </c>
       <c r="O2" s="12">
         <f>配置计划!G14</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
@@ -3321,7 +3587,7 @@
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>481824.08999999997</v>
+        <v>488574.08999999997</v>
       </c>
       <c r="S2" s="13"/>
     </row>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B941F6-95FF-5747-A297-3CFE0197507E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BD0456-5ED3-4049-B046-A40D3C2072B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,20 +43,6 @@
     <author>Hello_C</author>
   </authors>
   <commentList>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>理财通</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -68,7 +54,18 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
 </t>
         </r>
         <r>
@@ -94,7 +91,18 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
 </t>
         </r>
         <r>
@@ -115,7 +123,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -125,13 +133,63 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-许亮亮 预计4月</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>许亮亮</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预计</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
         </r>
       </text>
     </comment>
@@ -361,15 +419,15 @@
     <t>负债</t>
   </si>
   <si>
-    <t>2020年03月10日更新 顺道设定信用卡还款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每月10号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模板</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年04月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +440,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -423,21 +481,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2234,6 +2277,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51143C91-2007-3D42-BAE4-7333C92C4A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D299C924-2E33-EA40-BD95-B8E13CC703BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF28F6D-80A6-7445-A401-D5BB5FC03B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2769,6 +2974,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20BFFAA-3DF2-E041-B093-34AF07FE1708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF3253F-54AD-CF4B-8A91-4277A8D47ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3072,7 +3385,7 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3092,10 +3405,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>25713.95</v>
+        <f>83098.82+31098.71</f>
+        <v>114197.53</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -3112,7 +3426,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>10033.67</v>
+        <v>85197.53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -3122,16 +3436,16 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:P2)</f>
-        <v>42720.71</v>
+        <v>42851.53</v>
       </c>
       <c r="H2" s="4">
-        <v>10404.93</v>
+        <v>10436.620000000001</v>
       </c>
       <c r="I2" s="4">
-        <v>10692.52</v>
+        <v>10725.07</v>
       </c>
       <c r="J2" s="4">
-        <v>21623.26</v>
+        <v>21689.84</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -3141,11 +3455,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>15680.28</v>
+        <v>29000</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>93230</v>
+        <v>83338.89</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -3193,20 +3507,18 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>50509.29</v>
+        <v>40487.360000000001</v>
       </c>
       <c r="H5" s="4">
-        <v>20190.28</v>
+        <v>20251.849999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>10095.01</v>
+        <v>10125.74</v>
       </c>
       <c r="J5" s="4">
-        <v>10079.1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10144.9</v>
-      </c>
+        <v>10109.77</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -3237,11 +3549,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>152475</v>
+        <v>147630</v>
       </c>
       <c r="H7" s="4">
-        <f>28500*5.35</f>
-        <v>152475</v>
+        <f>28500*5.18</f>
+        <v>147630</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3252,11 +3564,11 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>205762.96</v>
+        <v>211077.3</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
@@ -3284,10 +3596,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>53287.96</v>
+        <v>63447.3</v>
       </c>
       <c r="H9" s="4">
-        <v>53287.96</v>
+        <v>63447.3</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3308,10 +3620,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>35447.480000000003</v>
+        <v>35801.040000000001</v>
       </c>
       <c r="H10" s="4">
-        <v>35447.480000000003</v>
+        <v>35801.040000000001</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3326,17 +3638,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>145547.46000000002</v>
+        <v>76170.64</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>37299.980000000003</v>
+        <v>38419.51</v>
       </c>
       <c r="H11" s="4">
-        <v>37299.980000000003</v>
+        <v>38419.51</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3347,17 +3659,17 @@
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <v>680.28</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>72800</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>72800</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3372,10 +3684,10 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1950.09</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1950.09</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3457,7 +3769,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>488574.08999999997</v>
+        <v>503784.36</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3493,7 +3805,7 @@
   <dimension ref="B1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3518,20 +3830,20 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:19">
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>25713.95</v>
+        <v>114197.53</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>42720.71</v>
+        <v>42851.53</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -3543,11 +3855,11 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>50509.29</v>
+        <v>40487.360000000001</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>152475</v>
+        <v>147630</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
@@ -3555,23 +3867,23 @@
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>53287.96</v>
+        <v>63447.3</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>35447.480000000003</v>
+        <v>35801.040000000001</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>37299.980000000003</v>
+        <v>38419.51</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
-        <v>72800</v>
+        <v>0</v>
       </c>
       <c r="N2" s="12">
         <f>配置计划!G13</f>
-        <v>0</v>
+        <v>1950.09</v>
       </c>
       <c r="O2" s="12">
         <f>配置计划!G14</f>
@@ -3583,11 +3895,11 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-680.28</v>
+        <v>0</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>488574.08999999997</v>
+        <v>503784.36</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -3784,7 +4096,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S14" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S15" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -4245,24 +4557,61 @@
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
+      <c r="B15" s="20">
+        <v>43931</v>
+      </c>
+      <c r="C15" s="18">
+        <v>114197.53</v>
+      </c>
+      <c r="D15" s="18">
+        <v>42851.53</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>40487.360000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <v>147630</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>63447.3</v>
+      </c>
+      <c r="K15" s="18">
+        <v>35801.040000000001</v>
+      </c>
+      <c r="L15" s="18">
+        <v>38419.51</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1950.09</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>19000</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <v>503784.36</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="0"/>
+        <v>21960.270000000019</v>
+      </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="21"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BD0456-5ED3-4049-B046-A40D3C2072B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1E669-B2C0-CF49-AE9B-76A8995BDFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年04月10日更新 顺道设定信用卡还款</t>
+    <t>2020年05月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2439,6 +2439,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4094A498-77F7-EC47-B873-7ED7D523365E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9056BB61-3ABC-9C48-9C3E-3845BD36178A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3082,6 +3190,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBE4178-7A98-EC48-B6CF-8AF0A3C43C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548CDC78-D9BF-F843-BBDF-5948213AEE54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3385,7 +3601,7 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3405,8 +3621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>83098.82+31098.71</f>
-        <v>114197.53</v>
+        <v>127821.32</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>54</v>
@@ -3426,7 +3641,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>85197.53</v>
+        <v>98990.080000000016</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -3436,16 +3651,16 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:P2)</f>
-        <v>42851.53</v>
+        <v>42963.5</v>
       </c>
       <c r="H2" s="4">
-        <v>10436.620000000001</v>
+        <v>10463.75</v>
       </c>
       <c r="I2" s="4">
-        <v>10725.07</v>
+        <v>10752.96</v>
       </c>
       <c r="J2" s="4">
-        <v>21689.84</v>
+        <v>21746.79</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -3455,11 +3670,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>29000</v>
+        <v>28831.239999999998</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>83338.89</v>
+        <v>83556.17</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -3478,7 +3693,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>13831.24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -3507,16 +3722,16 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>40487.360000000001</v>
+        <v>40592.67</v>
       </c>
       <c r="H5" s="4">
-        <v>20251.849999999999</v>
+        <v>10136.049999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>10125.74</v>
+        <v>20304.57</v>
       </c>
       <c r="J5" s="4">
-        <v>10109.77</v>
+        <v>10152.049999999999</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -3549,11 +3764,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>147630</v>
+        <v>146490</v>
       </c>
       <c r="H7" s="4">
-        <f>28500*5.18</f>
-        <v>147630</v>
+        <f>28500*5.14</f>
+        <v>146490</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3564,11 +3779,11 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>211077.3</v>
+        <v>210261.9</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
@@ -3596,10 +3811,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>63447.3</v>
+        <v>63771.9</v>
       </c>
       <c r="H9" s="4">
-        <v>63447.3</v>
+        <v>63771.9</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3620,10 +3835,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>35801.040000000001</v>
+        <v>41053.19</v>
       </c>
       <c r="H10" s="4">
-        <v>35801.040000000001</v>
+        <v>41053.19</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3638,17 +3853,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>76170.64</v>
+        <v>85277.62</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>38419.51</v>
+        <v>42212.18</v>
       </c>
       <c r="H11" s="4">
-        <v>38419.51</v>
+        <v>42212.18</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3684,10 +3899,10 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>1950.09</v>
+        <v>2012.25</v>
       </c>
       <c r="H13" s="4">
-        <v>1950.09</v>
+        <v>2012.25</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3769,7 +3984,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>503784.36</v>
+        <v>512085.77</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3805,7 +4020,7 @@
   <dimension ref="B1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3839,11 +4054,11 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>114197.53</v>
+        <v>127821.32</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>42851.53</v>
+        <v>42963.5</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -3855,11 +4070,11 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>40487.360000000001</v>
+        <v>40592.67</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>147630</v>
+        <v>146490</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
@@ -3867,15 +4082,15 @@
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>63447.3</v>
+        <v>63771.9</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>35801.040000000001</v>
+        <v>41053.19</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>38419.51</v>
+        <v>42212.18</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -3883,7 +4098,7 @@
       </c>
       <c r="N2" s="12">
         <f>配置计划!G13</f>
-        <v>1950.09</v>
+        <v>2012.25</v>
       </c>
       <c r="O2" s="12">
         <f>配置计划!G14</f>
@@ -3895,11 +4110,11 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>0</v>
+        <v>-13831.24</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>503784.36</v>
+        <v>512085.77</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -4096,7 +4311,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S15" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S16" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -4614,24 +4829,61 @@
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
+      <c r="B16" s="20">
+        <v>43961</v>
+      </c>
+      <c r="C16" s="18">
+        <v>127821.32</v>
+      </c>
+      <c r="D16" s="18">
+        <v>42963.5</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>40592.67</v>
+      </c>
+      <c r="H16" s="18">
+        <v>146490</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>63771.9</v>
+      </c>
+      <c r="K16" s="18">
+        <v>41053.19</v>
+      </c>
+      <c r="L16" s="18">
+        <v>42212.18</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>2012.25</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <v>19000</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>-13831.24</v>
+      </c>
+      <c r="R16" s="18">
+        <v>512085.77</v>
+      </c>
+      <c r="S16" s="19">
+        <f t="shared" si="0"/>
+        <v>8301.4100000000326</v>
+      </c>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="21"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1E669-B2C0-CF49-AE9B-76A8995BDFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8800207-0395-DC47-B1BC-DDBD26E26C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2547,6 +2547,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D7AB36-B09F-D648-B0C8-28D98D7B2DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E913EC21-EFAA-DF44-A4E2-FADD77F5F597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3298,6 +3406,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52927C50-08EB-854D-9E89-C0E720FA456C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ADF5E5-CF87-D949-AECD-D82E2C4E59B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3601,7 +3817,7 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3937,7 +4153,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -3959,7 +4175,7 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
@@ -3967,9 +4183,7 @@
       <c r="I16" s="4">
         <v>2000</v>
       </c>
-      <c r="J16" s="4">
-        <v>10000</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
@@ -3984,7 +4198,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>512085.77</v>
+        <v>502085.77</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -4106,7 +4320,7 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
@@ -4114,7 +4328,7 @@
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>512085.77</v>
+        <v>502085.77</v>
       </c>
       <c r="S2" s="13"/>
     </row>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8800207-0395-DC47-B1BC-DDBD26E26C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D45C8E-3394-CE4A-A997-F605F8EA9246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
   <authors>
     <author/>
     <author>Hello_C</author>
+    <author>husky husky</author>
   </authors>
   <commentList>
     <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
@@ -149,47 +150,84 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>许亮亮</t>
+          <t>赵世麒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="2" shapeId="0" xr:uid="{BCEED947-3ADE-AC41-8A43-F58254ACD955}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>husky husky:</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
             <charset val="134"/>
+          </rPr>
+          <t>王云帅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="等线"/>
+            <family val="4"/>
             <charset val="134"/>
           </rPr>
           <t>预计</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+            <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>4</t>
+          <t>10</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="等线"/>
+            <family val="4"/>
             <charset val="134"/>
           </rPr>
           <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -427,7 +465,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年05月10日更新 顺道设定信用卡还款</t>
+    <t>2020年06月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +478,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -483,6 +521,24 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2655,6 +2711,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EE1FF6-C584-2B4B-9EA1-A9BC05178977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDEF9C8-4BBF-6B42-B339-9B5CADEDD3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3514,6 +3678,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5577B609-5B30-9A49-BA6D-96BAE52F7D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAE60BF-8176-F44D-8C17-57387C34C5D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3816,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3837,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>127821.32</v>
+        <v>71850.19</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>54</v>
@@ -3857,7 +4129,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>98990.080000000016</v>
+        <v>51877.060000000005</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -3867,16 +4139,16 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:P2)</f>
-        <v>42963.5</v>
+        <v>43092.05</v>
       </c>
       <c r="H2" s="4">
-        <v>10463.75</v>
+        <v>10494.85</v>
       </c>
       <c r="I2" s="4">
-        <v>10752.96</v>
+        <v>10784.94</v>
       </c>
       <c r="J2" s="4">
-        <v>21746.79</v>
+        <v>21812.26</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -3886,11 +4158,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>28831.239999999998</v>
+        <v>19973.129999999997</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>83556.17</v>
+        <v>83805.510000000009</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -3909,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>13831.24</v>
+        <v>510.29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -3931,23 +4203,23 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>1716.92</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>40592.67</v>
+        <v>40713.46</v>
       </c>
       <c r="H5" s="4">
-        <v>10136.049999999999</v>
+        <v>10182.24</v>
       </c>
       <c r="I5" s="4">
-        <v>20304.57</v>
+        <v>20365.04</v>
       </c>
       <c r="J5" s="4">
-        <v>10152.049999999999</v>
+        <v>10166.18</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -3980,11 +4252,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>146490</v>
+        <v>146205</v>
       </c>
       <c r="H7" s="4">
-        <f>28500*5.14</f>
-        <v>146490</v>
+        <f>28500*5.13</f>
+        <v>146205</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3999,7 +4271,7 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>210261.9</v>
+        <v>210011.16</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
@@ -4027,10 +4299,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>63771.9</v>
+        <v>63806.16</v>
       </c>
       <c r="H9" s="4">
-        <v>63771.9</v>
+        <v>63806.16</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4051,10 +4323,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>41053.19</v>
+        <v>45586.86</v>
       </c>
       <c r="H10" s="4">
-        <v>41053.19</v>
+        <v>45586.86</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4069,17 +4341,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>85277.62</v>
+        <v>91990.739999999991</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>42212.18</v>
+        <v>46403.88</v>
       </c>
       <c r="H11" s="4">
-        <v>42212.18</v>
+        <v>46403.88</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -4090,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>2745.92</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>27</v>
@@ -4115,10 +4387,10 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>2012.25</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>2012.25</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4153,7 +4425,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>9000</v>
+        <v>79000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -4175,7 +4447,7 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
-        <v>9000</v>
+        <v>79000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
@@ -4183,8 +4455,12 @@
       <c r="I16" s="4">
         <v>2000</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="4">
+        <v>20000</v>
+      </c>
+      <c r="K16" s="4">
+        <v>50000</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -4198,7 +4474,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>502085.77</v>
+        <v>531684.47</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -4233,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4268,11 +4544,11 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>127821.32</v>
+        <v>71850.19</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>42963.5</v>
+        <v>43092.05</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -4284,11 +4560,11 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>40592.67</v>
+        <v>40713.46</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>146490</v>
+        <v>146205</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
@@ -4296,15 +4572,15 @@
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>63771.9</v>
+        <v>63806.16</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>41053.19</v>
+        <v>45586.86</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>42212.18</v>
+        <v>46403.88</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -4312,7 +4588,7 @@
       </c>
       <c r="N2" s="12">
         <f>配置计划!G13</f>
-        <v>2012.25</v>
+        <v>0</v>
       </c>
       <c r="O2" s="12">
         <f>配置计划!G14</f>
@@ -4320,15 +4596,15 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>9000</v>
+        <v>79000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-13831.24</v>
+        <v>-4973.13</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>502085.77</v>
+        <v>531684.47</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -4525,7 +4801,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S16" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S17" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -5100,24 +5376,61 @@
       </c>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19"/>
+      <c r="B17" s="20">
+        <v>43992</v>
+      </c>
+      <c r="C17" s="18">
+        <v>71850.19</v>
+      </c>
+      <c r="D17" s="18">
+        <v>43092.05</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>40713.46</v>
+      </c>
+      <c r="H17" s="18">
+        <v>146205</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>63806.16</v>
+      </c>
+      <c r="K17" s="18">
+        <v>45586.86</v>
+      </c>
+      <c r="L17" s="18">
+        <v>46403.88</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
+        <v>79000</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>-4973.13</v>
+      </c>
+      <c r="R17" s="18">
+        <v>531684.47</v>
+      </c>
+      <c r="S17" s="19">
+        <f t="shared" si="0"/>
+        <v>19598.699999999953</v>
+      </c>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="21"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D45C8E-3394-CE4A-A997-F605F8EA9246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA58BA-E5DD-B74D-B981-AAAF24DEAA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,18 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
 </t>
         </r>
         <r>
@@ -263,7 +274,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>高金波投入150000</t>
+          <t>高金波投入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>150000</t>
         </r>
       </text>
     </comment>
@@ -2819,6 +2840,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104BA9BA-D4B6-2945-B59D-48AD19246313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A376DCCD-72F8-D24C-8A89-45265C532646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3786,6 +3915,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7198523E-25FE-4545-8D12-DF82F8D9288E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7A005F-1EC7-DA44-8836-53DE71897509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4510,7 +4747,7 @@
   <dimension ref="B1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5542,7 +5779,7 @@
     <mergeCell ref="R3:R4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="S5:S22">
+  <conditionalFormatting sqref="S5:S9 S11:S22">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5798,7 +6035,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S5:S22</xm:sqref>
+          <xm:sqref>S5:S9 S11:S22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8D5B3DD-0362-4B02-B824-E543E635778C}">

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA58BA-E5DD-B74D-B981-AAAF24DEAA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15593C11-52CB-7C4A-ACEC-ABED4160CC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">配置计划!$A$1:$J$19</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -295,11 +295,91 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <family val="4"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">年终奖+Q4绩效
-+双十一奖金-扣税 = 34437.9
+          <t>年终奖</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>+Q4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>绩效</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>双十一奖金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>扣税</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> = 34437.9
 </t>
         </r>
       </text>
@@ -309,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>余额宝</t>
   </si>
@@ -489,6 +569,34 @@
     <t>2020年06月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>余额宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>债权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -499,7 +607,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -557,6 +665,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
@@ -870,6 +985,1224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1229002584335966"/>
+          <c:y val="6.8360810035063446E-2"/>
+          <c:w val="0.77547163838257316"/>
+          <c:h val="0.93163918996493655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>配置计划!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>余额宝</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>理财</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>基金</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>债券</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>股票</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>定期</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>债权</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>配置计划!$L$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>71850.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83805.510000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91990.739999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210011.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2948,6 +4281,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFD3605-7C24-D44C-8181-215C92650913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A525B870-9026-5B4B-AD9A-E6201188DE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655369</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>251604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>335471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="图表 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A06248E-53D4-974A-93FB-4688A4E87E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4023,6 +5500,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBC0F90-2DAF-5540-891F-72E0C491518B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B34E2C-026E-4045-AFDC-C396ED3A8193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9550400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4325,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4341,7 +5926,7 @@
     <col min="9" max="1025" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1">
+    <row r="1" spans="1:18" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4359,8 +5944,29 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1">
+    <row r="2" spans="1:18" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4375,7 +5981,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(H2:P2)</f>
+        <f>SUM(H2:K2)</f>
         <v>43092.05</v>
       </c>
       <c r="H2" s="4">
@@ -4388,8 +5994,36 @@
         <v>21812.26</v>
       </c>
       <c r="K2" s="4"/>
+      <c r="L2" s="2">
+        <f>B1</f>
+        <v>71850.19</v>
+      </c>
+      <c r="M2" s="2">
+        <f>E3</f>
+        <v>83805.510000000009</v>
+      </c>
+      <c r="N2" s="2">
+        <f>E11-G12</f>
+        <v>91990.739999999991</v>
+      </c>
+      <c r="O2" s="2">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <f>E8</f>
+        <v>210011.16</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <f>E15</f>
+        <v>79000</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5" customHeight="1">
+    <row r="3" spans="1:18" ht="28.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4413,7 +6047,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="28.5" customHeight="1">
+    <row r="4" spans="1:18" ht="28.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +6069,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="28.5" customHeight="1">
+    <row r="5" spans="1:18" ht="28.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4460,7 +6094,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="28.5" customHeight="1">
+    <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4474,7 +6108,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="28.5" customHeight="1">
+    <row r="7" spans="1:18" ht="28.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -4499,7 +6133,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1">
+    <row r="8" spans="1:18" ht="28.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -4524,7 +6158,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="28.5" customHeight="1">
+    <row r="9" spans="1:18" ht="28.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4545,7 +6179,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1">
+    <row r="10" spans="1:18" ht="28.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4569,7 +6203,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="28.5" customHeight="1">
+    <row r="11" spans="1:18" ht="28.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -4594,7 +6228,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="28.5" customHeight="1">
+    <row r="12" spans="1:18" ht="28.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -4615,7 +6249,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="28.5" customHeight="1">
+    <row r="13" spans="1:18" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -4633,7 +6267,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="28.5" customHeight="1">
+    <row r="14" spans="1:18" ht="28.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -4653,7 +6287,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="28.5" customHeight="1">
+    <row r="15" spans="1:18" ht="28.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4671,7 +6305,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="28.5" customHeight="1">
+    <row r="16" spans="1:18" ht="28.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4746,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4930,7 +6564,7 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="17">
+      <c r="B5" s="20">
         <v>43656</v>
       </c>
       <c r="C5" s="18">
@@ -4986,7 +6620,7 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>43689</v>
       </c>
       <c r="C6" s="18">
@@ -5043,7 +6677,7 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="17">
+      <c r="B7" s="20">
         <v>43719</v>
       </c>
       <c r="C7" s="18">

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smzdm/Documents/cccode/invest/资产收益统计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15593C11-52CB-7C4A-ACEC-ABED4160CC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29070D81-A592-4C18-8AE9-45A0A1CFA011}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -42,6 +40,7 @@
     <author/>
     <author>Hello_C</author>
     <author>husky husky</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
@@ -162,6 +161,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>husky husky:</t>
         </r>
@@ -170,6 +171,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -189,6 +192,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -207,6 +212,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>10</t>
         </r>
@@ -225,9 +232,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="3" shapeId="0" xr:uid="{82249E47-1006-4538-98C1-A7CE84629B0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:赵航</t>
         </r>
       </text>
     </comment>
@@ -607,7 +631,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -656,12 +680,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -675,6 +703,14 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -845,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -889,7 +925,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1493,6 +1528,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1555,25 +1597,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>71850.19</c:v>
+                  <c:v>15400.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83805.510000000009</c:v>
+                  <c:v>89031.699999999983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91990.739999999991</c:v>
+                  <c:v>28529.759999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210011.16</c:v>
+                  <c:v>477635.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79000</c:v>
+                  <c:v>-41000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4425,6 +4467,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6914DC6E-4B81-4B1A-8DE3-06A4A6172B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7390B5-5391-4ECA-8BDA-9FA6EB68B57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5608,6 +5758,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7248737F-CD25-4628-A400-97230B08A52B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFF2966-D816-40D4-9AC9-0E1BF17E42F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5910,34 +6168,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="2" customWidth="1"/>
     <col min="9" max="1025" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1">
+    <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>71850.19</v>
-      </c>
-      <c r="D1" s="25" t="s">
+        <f>14616.55+430+354</f>
+        <v>15400.55</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5966,13 +6225,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1">
+    <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>51877.060000000005</v>
+        <v>-383.45000000000073</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -5982,29 +6241,29 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>43092.05</v>
+        <v>43205.869999999995</v>
       </c>
       <c r="H2" s="4">
-        <v>10494.85</v>
+        <v>10522.4</v>
       </c>
       <c r="I2" s="4">
-        <v>10784.94</v>
+        <v>10813.27</v>
       </c>
       <c r="J2" s="4">
-        <v>21812.26</v>
+        <v>21870.2</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>71850.19</v>
+        <v>15400.55</v>
       </c>
       <c r="M2" s="2">
         <f>E3</f>
-        <v>83805.510000000009</v>
+        <v>89031.699999999983</v>
       </c>
       <c r="N2" s="2">
         <f>E11-G12</f>
-        <v>91990.739999999991</v>
+        <v>28529.759999999998</v>
       </c>
       <c r="O2" s="2">
         <f>G12</f>
@@ -6012,7 +6271,7 @@
       </c>
       <c r="P2" s="2">
         <f>E8</f>
-        <v>210011.16</v>
+        <v>477635.74</v>
       </c>
       <c r="Q2" s="2">
         <f>G14</f>
@@ -6020,20 +6279,20 @@
       </c>
       <c r="R2" s="2">
         <f>E15</f>
-        <v>79000</v>
+        <v>-41000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.5" customHeight="1">
+    <row r="3" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>19973.129999999997</v>
+        <v>15784</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>83805.510000000009</v>
+        <v>89031.699999999983</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -6047,12 +6306,12 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1">
+    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>510.29</v>
+        <v>430</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -6069,32 +6328,34 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1">
+    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>1716.92</v>
+        <v>354</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>40713.46</v>
+        <v>45825.829999999994</v>
       </c>
       <c r="H5" s="4">
-        <v>10182.24</v>
+        <v>10192.879999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>20365.04</v>
+        <v>20418.650000000001</v>
       </c>
       <c r="J5" s="4">
-        <v>10166.18</v>
-      </c>
-      <c r="K5" s="4"/>
+        <v>10208.98</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5005.32</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1">
+    <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -6108,7 +6369,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1">
+    <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -6123,17 +6384,17 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>146205</v>
+        <v>154470</v>
       </c>
       <c r="H7" s="4">
-        <f>28500*5.13</f>
-        <v>146205</v>
+        <f>28500*5.42</f>
+        <v>154470</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="28.5" customHeight="1">
+    <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -6142,7 +6403,7 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>210011.16</v>
+        <v>477635.74</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
@@ -6158,7 +6419,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="28.5" customHeight="1">
+    <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -6170,16 +6431,16 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>63806.16</v>
+        <v>323165.74</v>
       </c>
       <c r="H9" s="4">
-        <v>63806.16</v>
+        <v>323165.74</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1">
+    <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6194,16 +6455,16 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>45586.86</v>
+        <v>18896.05</v>
       </c>
       <c r="H10" s="4">
-        <v>45586.86</v>
+        <v>18896.05</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="28.5" customHeight="1">
+    <row r="11" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -6212,28 +6473,28 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>91990.739999999991</v>
+        <v>28529.759999999998</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>46403.88</v>
+        <v>9633.7099999999991</v>
       </c>
       <c r="H11" s="4">
-        <v>46403.88</v>
+        <v>9633.7099999999991</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="28.5" customHeight="1">
+    <row r="12" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <v>2745.92</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>27</v>
@@ -6249,7 +6510,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="28.5" customHeight="1">
+    <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -6267,7 +6528,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="28.5" customHeight="1">
+    <row r="14" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -6287,7 +6548,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="28.5" customHeight="1">
+    <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -6296,7 +6557,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>79000</v>
+        <v>-41000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -6305,7 +6566,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="28.5" customHeight="1">
+    <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -6318,7 +6579,7 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
-        <v>79000</v>
+        <v>-41000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
@@ -6327,13 +6588,16 @@
         <v>2000</v>
       </c>
       <c r="J16" s="4">
-        <v>20000</v>
+        <v>-40000</v>
       </c>
       <c r="K16" s="4">
         <v>50000</v>
       </c>
+      <c r="L16" s="2">
+        <v>-60000</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1">
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -6345,7 +6609,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>531684.47</v>
+        <v>568813.75</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -6353,7 +6617,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="28.5" customHeight="1">
+    <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -6361,7 +6625,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="28.5" customHeight="1">
+    <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
     </row>
   </sheetData>
@@ -6380,28 +6644,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="13" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" customWidth="1"/>
-    <col min="15" max="16" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="15" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" customWidth="1"/>
-    <col min="20" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="9.875" customWidth="1"/>
+    <col min="20" max="1025" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -6409,17 +6673,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>71850.19</v>
+        <v>15400.55</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>43092.05</v>
+        <v>43205.869999999995</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -6431,11 +6695,11 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>40713.46</v>
+        <v>45825.829999999994</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>146205</v>
+        <v>154470</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
@@ -6443,15 +6707,15 @@
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>63806.16</v>
+        <v>323165.74</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>45586.86</v>
+        <v>18896.05</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>46403.88</v>
+        <v>9633.7099999999991</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -6467,53 +6731,53 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>79000</v>
+        <v>-41000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-4973.13</v>
+        <v>-784</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>531684.47</v>
+        <v>568813.75</v>
       </c>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="32">
+    <row r="4" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
@@ -6560,10 +6824,10 @@
       <c r="Q4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="20">
         <v>43656</v>
       </c>
@@ -6619,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
         <v>43689</v>
       </c>
@@ -6672,11 +6936,11 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S17" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S18" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="20">
         <v>43719</v>
       </c>
@@ -6733,7 +6997,7 @@
         <v>9880.0599999999977</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
         <v>43752</v>
       </c>
@@ -6790,7 +7054,7 @@
         <v>4677.1500000000233</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="17">
         <v>43780</v>
       </c>
@@ -6847,7 +7111,7 @@
         <v>11112.369999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
         <v>43809</v>
       </c>
@@ -6904,7 +7168,7 @@
         <v>164194.19</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="20">
         <v>43840</v>
       </c>
@@ -6961,7 +7225,7 @@
         <v>14377.539999999979</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="20">
         <v>43854</v>
       </c>
@@ -7018,7 +7282,7 @@
         <v>18442.47000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="20">
         <v>43871</v>
       </c>
@@ -7075,7 +7339,7 @@
         <v>12316.76999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="20">
         <v>43900</v>
       </c>
@@ -7132,7 +7396,7 @@
         <v>28100.489999999991</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
         <v>43931</v>
       </c>
@@ -7189,7 +7453,7 @@
         <v>21960.270000000019</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="20">
         <v>43961</v>
       </c>
@@ -7246,7 +7510,7 @@
         <v>8301.4100000000326</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="20">
         <v>43992</v>
       </c>
@@ -7303,27 +7567,64 @@
         <v>19598.699999999953</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="20">
+        <v>44022</v>
+      </c>
+      <c r="C18" s="18">
+        <v>15400.55</v>
+      </c>
+      <c r="D18" s="18">
+        <v>43205.869999999995</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>45825.829999999994</v>
+      </c>
+      <c r="H18" s="18">
+        <v>154470</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>323165.74</v>
+      </c>
+      <c r="K18" s="18">
+        <v>18896.05</v>
+      </c>
+      <c r="L18" s="18">
+        <v>9633.7099999999991</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>-41000</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>-784</v>
+      </c>
+      <c r="R18" s="18">
+        <v>568813.75</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="0"/>
+        <v>37129.280000000028</v>
+      </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -7343,7 +7644,7 @@
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -7363,7 +7664,7 @@
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -7383,25 +7684,25 @@
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" spans="2:19" ht="16" thickBot="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="24"/>
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29070D81-A592-4C18-8AE9-45A0A1CFA011}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F064D11F-B072-4222-B08A-133F4EA2252B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,9 +40,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
-    <author>Hello_C</author>
-    <author>husky husky</author>
-    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
@@ -114,144 +113,6 @@
             <charset val="134"/>
           </rPr>
           <t>张朋</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Hello_C:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>赵世麒</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K16" authorId="2" shapeId="0" xr:uid="{BCEED947-3ADE-AC41-8A43-F58254ACD955}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>husky husky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王云帅</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预计</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>月</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L16" authorId="3" shapeId="0" xr:uid="{82249E47-1006-4538-98C1-A7CE84629B0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:赵航</t>
         </r>
       </text>
     </comment>
@@ -590,10 +451,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年06月10日更新 顺道设定信用卡还款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>余额宝</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -621,6 +478,10 @@
     <t>债权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2020年08月10日更新 顺道设定信用卡还款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -631,7 +492,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -677,40 +538,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1597,25 +1428,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15400.55</c:v>
+                  <c:v>16218.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89031.699999999983</c:v>
+                  <c:v>41256.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28529.759999999998</c:v>
+                  <c:v>24771.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>477635.74</c:v>
+                  <c:v>484590.58999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-41000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,6 +4406,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D6F2D0-46AA-492A-B38F-E6125F38CA86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C2E7BE-33DB-4CBE-A66F-82C75A636B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5866,6 +5805,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB18ABD4-7BD9-41C1-B945-B9A8453A4595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC81BFB0-DAF6-4D97-825A-976F01F0413C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6168,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6189,11 +6236,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>14616.55+430+354</f>
-        <v>15400.55</v>
+        <v>16218.76</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -6204,25 +6250,25 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6231,7 +6277,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>-383.45000000000073</v>
+        <v>-7810.92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -6241,29 +6287,29 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>43205.869999999995</v>
+        <v>41256.36</v>
       </c>
       <c r="H2" s="4">
-        <v>10522.4</v>
+        <v>20471.38</v>
       </c>
       <c r="I2" s="4">
-        <v>10813.27</v>
+        <v>10235.299999999999</v>
       </c>
       <c r="J2" s="4">
-        <v>21870.2</v>
+        <v>10549.68</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>15400.55</v>
+        <v>16218.76</v>
       </c>
       <c r="M2" s="2">
         <f>E3</f>
-        <v>89031.699999999983</v>
+        <v>41256.36</v>
       </c>
       <c r="N2" s="2">
         <f>E11-G12</f>
-        <v>28529.759999999998</v>
+        <v>24771.17</v>
       </c>
       <c r="O2" s="2">
         <f>G12</f>
@@ -6271,7 +6317,7 @@
       </c>
       <c r="P2" s="2">
         <f>E8</f>
-        <v>477635.74</v>
+        <v>484590.58999999997</v>
       </c>
       <c r="Q2" s="2">
         <f>G14</f>
@@ -6279,7 +6325,7 @@
       </c>
       <c r="R2" s="2">
         <f>E15</f>
-        <v>-41000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6288,11 +6334,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>15784</v>
+        <v>24029.68</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>89031.699999999983</v>
+        <v>41256.36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -6311,7 +6357,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>430</v>
+        <v>3947.18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -6333,27 +6379,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>354</v>
+        <v>5082.5</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>45825.829999999994</v>
-      </c>
-      <c r="H5" s="4">
-        <v>10192.879999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <v>20418.650000000001</v>
-      </c>
-      <c r="J5" s="4">
-        <v>10208.98</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5005.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -6384,11 +6422,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>154470</v>
+        <v>226094</v>
       </c>
       <c r="H7" s="4">
-        <f>28500*5.42</f>
-        <v>154470</v>
+        <f>(52800-5500)*4.78</f>
+        <v>226094</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6403,17 +6441,17 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>477635.74</v>
+        <v>484590.58999999997</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6431,10 +6469,11 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>323165.74</v>
+        <v>242196.59</v>
       </c>
       <c r="H9" s="4">
-        <v>323165.74</v>
+        <f>150000+92196.59</f>
+        <v>242196.59</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6455,10 +6494,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>18896.05</v>
+        <v>18424.78</v>
       </c>
       <c r="H10" s="4">
-        <v>18896.05</v>
+        <v>18424.78</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6473,17 +6512,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>28529.759999999998</v>
+        <v>24771.17</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>9633.7099999999991</v>
+        <v>6346.39</v>
       </c>
       <c r="H11" s="4">
-        <v>9633.7099999999991</v>
+        <v>6346.39</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6557,7 +6596,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>-41000</v>
+        <v>9000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -6579,7 +6618,7 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
-        <v>-41000</v>
+        <v>9000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
@@ -6587,15 +6626,8 @@
       <c r="I16" s="4">
         <v>2000</v>
       </c>
-      <c r="J16" s="4">
-        <v>-40000</v>
-      </c>
-      <c r="K16" s="4">
-        <v>50000</v>
-      </c>
-      <c r="L16" s="2">
-        <v>-60000</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -6609,7 +6641,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>568813.75</v>
+        <v>566807.19999999995</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -6644,8 +6676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6679,11 +6711,11 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>15400.55</v>
+        <v>16218.76</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>43205.869999999995</v>
+        <v>41256.36</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -6695,27 +6727,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>45825.829999999994</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>154470</v>
+        <v>226094</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>323165.74</v>
+        <v>242196.59</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>18896.05</v>
+        <v>18424.78</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>9633.7099999999991</v>
+        <v>6346.39</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -6731,15 +6763,15 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>-41000</v>
+        <v>9000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-784</v>
+        <v>-9029.68</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>568813.75</v>
+        <v>566807.19999999995</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -6936,7 +6968,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S18" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S19" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -7625,24 +7657,61 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
+      <c r="B19" s="20">
+        <v>44053</v>
+      </c>
+      <c r="C19" s="18">
+        <v>16218.76</v>
+      </c>
+      <c r="D19" s="18">
+        <v>41256.36</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>226094</v>
+      </c>
+      <c r="I19" s="18">
+        <v>16300</v>
+      </c>
+      <c r="J19" s="18">
+        <v>242196.59</v>
+      </c>
+      <c r="K19" s="18">
+        <v>18424.78</v>
+      </c>
+      <c r="L19" s="18">
+        <v>6346.39</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
+        <v>9000</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>-9029.68</v>
+      </c>
+      <c r="R19" s="18">
+        <v>566807.19999999995</v>
+      </c>
+      <c r="S19" s="19">
+        <f t="shared" si="0"/>
+        <v>-2006.5500000000466</v>
+      </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F064D11F-B072-4222-B08A-133F4EA2252B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681210E0-C8C2-4153-B74E-B0A22FC2B503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -1428,19 +1428,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16218.76</c:v>
+                  <c:v>44891.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41256.36</c:v>
+                  <c:v>91404.489999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24771.17</c:v>
+                  <c:v>26613.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>484590.58999999997</c:v>
+                  <c:v>419081.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4514,6 +4514,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE2DBD6-E28F-4D07-8FD7-D5CA0089AD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EBBECF-0C27-43BA-B554-8CB147F368E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5913,6 +6021,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7856B4-1893-405F-8CFE-0F7E0875ED86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9FFE9E-6C52-488F-AF16-196A00DE52C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6215,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6236,7 +6452,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>16218.76</v>
+        <f>20828.41+19242.2+4820.64</f>
+        <v>44891.25</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>61</v>
@@ -6277,7 +6494,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>-7810.92</v>
+        <v>25794.28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -6287,29 +6504,29 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>41256.36</v>
+        <v>41364.619999999995</v>
       </c>
       <c r="H2" s="4">
-        <v>20471.38</v>
+        <v>20525</v>
       </c>
       <c r="I2" s="4">
-        <v>10235.299999999999</v>
+        <v>10262.06</v>
       </c>
       <c r="J2" s="4">
-        <v>10549.68</v>
+        <v>10577.56</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>16218.76</v>
+        <v>44891.25</v>
       </c>
       <c r="M2" s="2">
         <f>E3</f>
-        <v>41256.36</v>
+        <v>91404.489999999991</v>
       </c>
       <c r="N2" s="2">
         <f>E11-G12</f>
-        <v>24771.17</v>
+        <v>26613.85</v>
       </c>
       <c r="O2" s="2">
         <f>G12</f>
@@ -6317,7 +6534,7 @@
       </c>
       <c r="P2" s="2">
         <f>E8</f>
-        <v>484590.58999999997</v>
+        <v>419081.81</v>
       </c>
       <c r="Q2" s="2">
         <f>G14</f>
@@ -6334,11 +6551,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>24029.68</v>
+        <v>19096.97</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>41256.36</v>
+        <v>91404.489999999991</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -6357,7 +6574,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>3947.18</v>
+        <v>-723.67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -6379,19 +6596,30 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>5082.5</v>
+        <v>4820.6400000000003</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+        <v>50039.869999999995</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10006.709999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10007.85</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10007.85</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10008.83</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10008.629999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -6422,11 +6650,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>226094</v>
+        <v>247170</v>
       </c>
       <c r="H7" s="4">
-        <f>(52800-5500)*4.78</f>
-        <v>226094</v>
+        <f>(59000-5500)*4.62</f>
+        <v>247170</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6441,20 +6669,24 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>484590.58999999997</v>
+        <v>419081.81</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>16300</v>
+        <v>36904</v>
       </c>
       <c r="H8" s="4">
-        <v>16300</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>19470</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7060</v>
+      </c>
+      <c r="J8" s="4">
+        <v>10374</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6469,11 +6701,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>242196.59</v>
+        <v>135007.81</v>
       </c>
       <c r="H9" s="4">
-        <f>150000+92196.59</f>
-        <v>242196.59</v>
+        <v>135007.81</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6494,10 +6725,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>18424.78</v>
+        <v>17840.41</v>
       </c>
       <c r="H10" s="4">
-        <v>18424.78</v>
+        <v>17840.41</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6512,17 +6743,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>24771.17</v>
+        <v>26613.85</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>6346.39</v>
+        <v>8773.44</v>
       </c>
       <c r="H11" s="4">
-        <v>6346.39</v>
+        <v>8773.44</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6610,8 +6841,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="2">
-        <f>34000-5500</f>
-        <v>28500</v>
+        <v>53500</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>34</v>
@@ -6641,7 +6871,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>566807.19999999995</v>
+        <v>586894.42999999993</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -6666,9 +6896,9 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6676,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6711,11 +6941,11 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>16218.76</v>
+        <v>44891.25</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>41256.36</v>
+        <v>41364.619999999995</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -6727,27 +6957,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>0</v>
+        <v>50039.869999999995</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>226094</v>
+        <v>247170</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>16300</v>
+        <v>36904</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>242196.59</v>
+        <v>135007.81</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>18424.78</v>
+        <v>17840.41</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>6346.39</v>
+        <v>8773.44</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -6767,11 +6997,11 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-9029.68</v>
+        <v>-4096.97</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>566807.19999999995</v>
+        <v>586894.43000000005</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -6968,7 +7198,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S19" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S20" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -7714,24 +7944,61 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="19"/>
+      <c r="B20" s="20">
+        <v>44084</v>
+      </c>
+      <c r="C20" s="18">
+        <v>44891.25</v>
+      </c>
+      <c r="D20" s="18">
+        <v>41364.619999999995</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>50039.869999999995</v>
+      </c>
+      <c r="H20" s="18">
+        <v>247170</v>
+      </c>
+      <c r="I20" s="18">
+        <v>36904</v>
+      </c>
+      <c r="J20" s="18">
+        <v>135007.81</v>
+      </c>
+      <c r="K20" s="18">
+        <v>17840.41</v>
+      </c>
+      <c r="L20" s="18">
+        <v>8773.44</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
+        <v>9000</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>-4096.97</v>
+      </c>
+      <c r="R20" s="18">
+        <v>586894.43000000005</v>
+      </c>
+      <c r="S20" s="19">
+        <f t="shared" si="0"/>
+        <v>20087.230000000098</v>
+      </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681210E0-C8C2-4153-B74E-B0A22FC2B503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E829D-74B6-40F1-82B6-07E05FF1A55E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>余额宝</t>
   </si>
@@ -378,9 +378,6 @@
     <t>银行定期 (定额  三级机动）</t>
   </si>
   <si>
-    <t>赵世麒（股）</t>
-  </si>
-  <si>
     <t>自己+高金波（股）</t>
   </si>
   <si>
@@ -479,7 +476,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年08月10日更新 顺道设定信用卡还款</t>
+    <t>赵世麒（股）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵世麒（代管）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -708,11 +713,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -768,6 +812,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1428,19 +1475,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44891.25</c:v>
+                  <c:v>34054.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91404.489999999991</c:v>
+                  <c:v>101613.95999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26613.85</c:v>
+                  <c:v>31090.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419081.81</c:v>
+                  <c:v>423448.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4265,15 +4312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655369</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>251604</xdr:rowOff>
+      <xdr:colOff>367822</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>203680</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>335471</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599057</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4622,6 +4669,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7167A63-BD9E-422D-AB55-A96B86FB2B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BED10B6-1DE1-4795-BA8E-7D2833037B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4637,7 +4792,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4686,7 +4841,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4735,7 +4890,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4789,7 +4944,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4843,7 +4998,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4897,7 +5052,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4951,7 +5106,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5005,7 +5160,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5059,7 +5214,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5113,7 +5268,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5167,7 +5322,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5221,7 +5376,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5275,7 +5430,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5329,7 +5484,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5383,7 +5538,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5437,7 +5592,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5491,7 +5646,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5545,7 +5700,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5599,7 +5754,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5653,7 +5808,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5707,7 +5862,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5761,7 +5916,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5815,7 +5970,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5869,7 +6024,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5923,7 +6078,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5977,7 +6132,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6031,7 +6186,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6085,7 +6240,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6094,6 +6249,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9FFE9E-6C52-488F-AF16-196A00DE52C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF5C01F-70B3-4F81-89EB-FFD6ADA52AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519CFAF1-732B-4D2A-9774-1D699336B581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6695,7 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6452,11 +6715,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>20828.41+19242.2+4820.64</f>
-        <v>44891.25</v>
+        <v>34054.86</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -6467,25 +6729,25 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6494,7 +6756,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>25794.28</v>
+        <v>-5267.239999999998</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -6504,29 +6766,29 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>41364.619999999995</v>
+        <v>41457.22</v>
       </c>
       <c r="H2" s="4">
-        <v>20525</v>
+        <v>20570.88</v>
       </c>
       <c r="I2" s="4">
-        <v>10262.06</v>
+        <v>10284.959999999999</v>
       </c>
       <c r="J2" s="4">
-        <v>10577.56</v>
+        <v>10601.38</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>44891.25</v>
+        <v>34054.86</v>
       </c>
       <c r="M2" s="2">
         <f>E3</f>
-        <v>91404.489999999991</v>
+        <v>101613.95999999999</v>
       </c>
       <c r="N2" s="2">
         <f>E11-G12</f>
-        <v>26613.85</v>
+        <v>31090.04</v>
       </c>
       <c r="O2" s="2">
         <f>G12</f>
@@ -6534,7 +6796,7 @@
       </c>
       <c r="P2" s="2">
         <f>E8</f>
-        <v>419081.81</v>
+        <v>423448.99</v>
       </c>
       <c r="Q2" s="2">
         <f>G14</f>
@@ -6551,11 +6813,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>19096.97</v>
+        <v>39322.1</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>91404.489999999991</v>
+        <v>101613.95999999999</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -6574,7 +6836,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>-723.67</v>
+        <v>1060.42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -6596,29 +6858,32 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>4820.6400000000003</v>
+        <v>3261.68</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>50039.869999999995</v>
+        <v>60156.74</v>
       </c>
       <c r="H5" s="4">
-        <v>10006.709999999999</v>
+        <v>10027.81</v>
       </c>
       <c r="I5" s="4">
-        <v>10007.85</v>
+        <v>10030.42</v>
       </c>
       <c r="J5" s="4">
-        <v>10007.85</v>
+        <v>10030.42</v>
       </c>
       <c r="K5" s="4">
-        <v>10008.83</v>
+        <v>10031.4</v>
       </c>
       <c r="L5" s="4">
-        <v>10008.629999999999</v>
+        <v>10029.73</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10006.959999999999</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6650,11 +6915,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>247170</v>
+        <v>293475</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500)*4.62</f>
-        <v>247170</v>
+        <f>(59000-5500+11000)*4.55</f>
+        <v>293475</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6665,28 +6930,26 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>419081.81</v>
+        <v>423448.99</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>36904</v>
+        <v>29715</v>
       </c>
       <c r="H8" s="4">
-        <v>19470</v>
+        <v>19074</v>
       </c>
       <c r="I8" s="4">
-        <v>7060</v>
-      </c>
-      <c r="J8" s="4">
-        <v>10374</v>
-      </c>
+        <v>10641</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6701,10 +6964,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>135007.81</v>
+        <v>100258.99</v>
       </c>
       <c r="H9" s="4">
-        <v>135007.81</v>
+        <v>100258.99</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6725,10 +6988,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>17840.41</v>
+        <v>20248.740000000002</v>
       </c>
       <c r="H10" s="4">
-        <v>17840.41</v>
+        <v>20248.740000000002</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6743,17 +7006,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>26613.85</v>
+        <v>31090.04</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>8773.44</v>
+        <v>10841.3</v>
       </c>
       <c r="H11" s="4">
-        <v>8773.44</v>
+        <v>10841.3</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6820,7 +7083,7 @@
     </row>
     <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2">
         <v>5500</v>
@@ -6838,13 +7101,13 @@
     </row>
     <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>53500</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
@@ -6861,7 +7124,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>10000</v>
@@ -6871,7 +7134,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>586894.42999999993</v>
+        <v>594885.74999999988</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -6880,6 +7143,12 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11000</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -6904,10 +7173,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:S22"/>
+  <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6929,23 +7201,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>44891.25</v>
+        <v>34054.86</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>41364.619999999995</v>
+        <v>41457.22</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -6957,27 +7229,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>50039.869999999995</v>
+        <v>60156.74</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>247170</v>
+        <v>293475</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>36904</v>
+        <v>29715</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>135007.81</v>
+        <v>100258.99</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>17840.41</v>
+        <v>20248.740000000002</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>8773.44</v>
+        <v>10841.3</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -6997,38 +7269,38 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-4096.97</v>
+        <v>-4322.1000000000004</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>586894.43000000005</v>
+        <v>594885.75000000012</v>
       </c>
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
@@ -7036,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -7045,16 +7317,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>16</v>
@@ -7063,28 +7335,28 @@
         <v>18</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="25"/>
@@ -7198,7 +7470,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S20" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S21" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -8001,44 +8273,201 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="19"/>
+      <c r="B21" s="20">
+        <v>44114</v>
+      </c>
+      <c r="C21" s="18">
+        <v>34054.86</v>
+      </c>
+      <c r="D21" s="18">
+        <v>41457.22</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>60156.74</v>
+      </c>
+      <c r="H21" s="18">
+        <v>293475</v>
+      </c>
+      <c r="I21" s="18">
+        <v>29715</v>
+      </c>
+      <c r="J21" s="18">
+        <v>100258.99</v>
+      </c>
+      <c r="K21" s="18">
+        <v>20248.740000000002</v>
+      </c>
+      <c r="L21" s="18">
+        <v>10841.3</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
+        <v>9000</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>-4322.1000000000004</v>
+      </c>
+      <c r="R21" s="18">
+        <v>594885.75000000012</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="0"/>
+        <v>7991.3200000000652</v>
+      </c>
     </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="29"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="29"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="29"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="29"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="29"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="29"/>
+    </row>
+    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8050,7 +8479,7 @@
     <mergeCell ref="R3:R4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="S5:S9 S11:S22">
+  <conditionalFormatting sqref="S5:S9 S11:S28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8064,7 +8493,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C22">
+  <conditionalFormatting sqref="C5:C28">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -8078,7 +8507,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D22">
+  <conditionalFormatting sqref="D5:D28">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -8092,7 +8521,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E22">
+  <conditionalFormatting sqref="E5:E28">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -8106,7 +8535,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F22">
+  <conditionalFormatting sqref="F5:F28">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -8120,7 +8549,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G22">
+  <conditionalFormatting sqref="G5:G28">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -8134,7 +8563,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H22">
+  <conditionalFormatting sqref="H5:H28">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -8148,7 +8577,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I22">
+  <conditionalFormatting sqref="I5:I28">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -8162,7 +8591,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J22">
+  <conditionalFormatting sqref="J5:J28">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -8176,7 +8605,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K22">
+  <conditionalFormatting sqref="K5:K28">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -8190,7 +8619,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L22">
+  <conditionalFormatting sqref="L5:L28">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -8204,7 +8633,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M22">
+  <conditionalFormatting sqref="M5:M28">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -8218,7 +8647,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N22">
+  <conditionalFormatting sqref="N5:N28">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8232,7 +8661,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O22">
+  <conditionalFormatting sqref="O5:O28">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8246,7 +8675,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P22">
+  <conditionalFormatting sqref="P5:P28">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -8260,7 +8689,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q22">
+  <conditionalFormatting sqref="Q5:Q28">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -8274,7 +8703,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R22">
+  <conditionalFormatting sqref="R5:R28">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8306,7 +8735,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S5:S9 S11:S22</xm:sqref>
+          <xm:sqref>S5:S9 S11:S28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8D5B3DD-0362-4B02-B824-E543E635778C}">
@@ -8319,7 +8748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C22</xm:sqref>
+          <xm:sqref>C5:C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9262FA2E-985C-4C9F-BC2C-5465EE4A39E5}">
@@ -8332,7 +8761,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D22</xm:sqref>
+          <xm:sqref>D5:D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366CB2EF-417B-4A2A-A0FC-74FA72D67D0E}">
@@ -8345,7 +8774,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E5:E22</xm:sqref>
+          <xm:sqref>E5:E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C63BD7AD-4A7E-41B2-B926-F353DC8F8355}">
@@ -8358,7 +8787,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F5:F22</xm:sqref>
+          <xm:sqref>F5:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF82F637-C529-4606-AB75-EFC562990FDD}">
@@ -8371,7 +8800,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G22</xm:sqref>
+          <xm:sqref>G5:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{108206A8-6F7A-4A41-865B-B89BF7A3213D}">
@@ -8384,7 +8813,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H5:H22</xm:sqref>
+          <xm:sqref>H5:H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5459F8EC-8409-4F32-91C3-C64502A2A1A7}">
@@ -8397,7 +8826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I5:I22</xm:sqref>
+          <xm:sqref>I5:I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA3F5533-E5A1-45C8-BEBA-D23596F0B1FB}">
@@ -8410,7 +8839,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J5:J22</xm:sqref>
+          <xm:sqref>J5:J28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D9E7CCB-26C7-49B5-B11C-54E3DB3F3F38}">
@@ -8423,7 +8852,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K5:K22</xm:sqref>
+          <xm:sqref>K5:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2784457A-ECE6-4F72-92D6-DDC0B0EC0618}">
@@ -8436,7 +8865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L5:L22</xm:sqref>
+          <xm:sqref>L5:L28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7CC31536-6AA6-473B-9F0A-A55BD9B8A311}">
@@ -8449,7 +8878,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M5:M22</xm:sqref>
+          <xm:sqref>M5:M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9ED6CAA1-F06F-4B76-A494-32CFD48F70A5}">
@@ -8462,7 +8891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N5:N22</xm:sqref>
+          <xm:sqref>N5:N28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79E86C09-D459-46FB-8ACE-D5B165E833BF}">
@@ -8475,7 +8904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O5:O22</xm:sqref>
+          <xm:sqref>O5:O28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7843817F-83BE-406B-8B5E-06FD2FA0F2BE}">
@@ -8488,7 +8917,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P5:P22</xm:sqref>
+          <xm:sqref>P5:P28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{89879D83-71C1-4BD2-8AD3-870641914BA9}">
@@ -8501,7 +8930,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q5:Q22</xm:sqref>
+          <xm:sqref>Q5:Q28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83AB5F10-FE33-4604-A317-D0B3AB265532}">
@@ -8514,7 +8943,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R5:R22</xm:sqref>
+          <xm:sqref>R5:R28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\cccode\invest\资产收益统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E829D-74B6-40F1-82B6-07E05FF1A55E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502D68C-813F-42C4-8CE1-B2B6E0D88758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -79,43 +79,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>张朋</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -124,6 +87,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -266,6 +230,32 @@
           </rPr>
           <t xml:space="preserve"> = 34437.9
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S22" authorId="1" shapeId="0" xr:uid="{C56D3DC1-A6D5-475B-AD32-1D279476566C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+房租年付</t>
         </r>
       </text>
     </comment>
@@ -497,7 +487,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -547,6 +537,21 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -803,6 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,9 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1475,25 +1480,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>34054.86</c:v>
+                  <c:v>35337.230000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101613.95999999999</c:v>
+                  <c:v>101876.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31090.04</c:v>
+                  <c:v>27866.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>423448.99</c:v>
+                  <c:v>396293.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,6 +4782,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6B7156-00C3-4BD9-9F2A-368C013B4B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F22AFBA-D258-4353-9A1A-92891D246FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6392,7 +6505,119 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB72E86-2A43-4CCC-98F0-22F09817AFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28B1AF1-2C2B-4EF7-A099-500790E0DFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6694,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6715,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>34054.86</v>
-      </c>
-      <c r="D1" s="24" t="s">
+        <v>35337.230000000003</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6756,7 +6981,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>-5267.239999999998</v>
+        <v>11802.800000000003</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -6766,29 +6991,29 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>41457.22</v>
+        <v>41559.699999999997</v>
       </c>
       <c r="H2" s="4">
-        <v>20570.88</v>
+        <v>20621.62</v>
       </c>
       <c r="I2" s="4">
-        <v>10284.959999999999</v>
+        <v>10310.27</v>
       </c>
       <c r="J2" s="4">
-        <v>10601.38</v>
+        <v>10627.81</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>34054.86</v>
+        <v>35337.230000000003</v>
       </c>
       <c r="M2" s="2">
         <f>E3</f>
-        <v>101613.95999999999</v>
+        <v>101876.89</v>
       </c>
       <c r="N2" s="2">
         <f>E11-G12</f>
-        <v>31090.04</v>
+        <v>27866.21</v>
       </c>
       <c r="O2" s="2">
         <f>G12</f>
@@ -6796,7 +7021,7 @@
       </c>
       <c r="P2" s="2">
         <f>E8</f>
-        <v>423448.99</v>
+        <v>396293.83</v>
       </c>
       <c r="Q2" s="2">
         <f>G14</f>
@@ -6804,7 +7029,7 @@
       </c>
       <c r="R2" s="2">
         <f>E15</f>
-        <v>9000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6813,11 +7038,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>39322.1</v>
+        <v>23534.43</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>101613.95999999999</v>
+        <v>101876.89</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -6836,7 +7061,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>1060.42</v>
+        <v>4155.62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -6858,32 +7083,32 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>3261.68</v>
+        <v>4378.8100000000004</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>60156.74</v>
+        <v>60317.19</v>
       </c>
       <c r="H5" s="4">
-        <v>10027.81</v>
+        <v>10045.74</v>
       </c>
       <c r="I5" s="4">
-        <v>10030.42</v>
+        <v>10048.9</v>
       </c>
       <c r="J5" s="4">
-        <v>10030.42</v>
+        <v>10056.91</v>
       </c>
       <c r="K5" s="4">
-        <v>10031.4</v>
+        <v>10056.91</v>
       </c>
       <c r="L5" s="4">
-        <v>10029.73</v>
+        <v>10057.9</v>
       </c>
       <c r="M5" s="2">
-        <v>10006.959999999999</v>
+        <v>10050.83</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6915,11 +7140,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>293475</v>
+        <v>297345</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.55</f>
-        <v>293475</v>
+        <f>(59000-5500+11000)*4.61</f>
+        <v>297345</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6930,24 +7155,24 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>423448.99</v>
+        <v>396293.83</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>29715</v>
+        <v>28578</v>
       </c>
       <c r="H8" s="4">
-        <v>19074</v>
+        <v>18216</v>
       </c>
       <c r="I8" s="4">
-        <v>10641</v>
+        <v>10362</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -6964,10 +7189,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>100258.99</v>
+        <v>70370.83</v>
       </c>
       <c r="H9" s="4">
-        <v>100258.99</v>
+        <v>70370.83</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6988,10 +7213,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>20248.740000000002</v>
+        <v>13872.65</v>
       </c>
       <c r="H10" s="4">
-        <v>20248.740000000002</v>
+        <v>13872.65</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7006,17 +7231,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>31090.04</v>
+        <v>27866.21</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>10841.3</v>
+        <v>13993.56</v>
       </c>
       <c r="H11" s="4">
-        <v>10841.3</v>
+        <v>13993.56</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -7090,7 +7315,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -7111,14 +7336,12 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
       </c>
-      <c r="I16" s="4">
-        <v>2000</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -7134,7 +7357,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>594885.74999999988</v>
+        <v>559839.73</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -7175,11 +7398,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7213,11 +7436,11 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>34054.86</v>
+        <v>35337.230000000003</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>41457.22</v>
+        <v>41559.699999999997</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -7229,27 +7452,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>60156.74</v>
+        <v>60317.19</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>293475</v>
+        <v>297345</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>29715</v>
+        <v>28578</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>100258.99</v>
+        <v>70370.83</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>20248.740000000002</v>
+        <v>13872.65</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>10841.3</v>
+        <v>13993.56</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -7265,15 +7488,15 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-4322.1000000000004</v>
+        <v>-8534.43</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>594885.75000000012</v>
+        <v>559839.73</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -7282,32 +7505,32 @@
       <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7358,8 +7581,8 @@
       <c r="Q4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="25"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="20">
@@ -7470,7 +7693,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S21" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S22" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -8330,124 +8553,161 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="29"/>
+      <c r="B22" s="24">
+        <v>44145</v>
+      </c>
+      <c r="C22" s="25">
+        <v>35337.230000000003</v>
+      </c>
+      <c r="D22" s="25">
+        <v>41559.699999999997</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>60317.19</v>
+      </c>
+      <c r="H22" s="25">
+        <v>297345</v>
+      </c>
+      <c r="I22" s="25">
+        <v>28578</v>
+      </c>
+      <c r="J22" s="25">
+        <v>70370.83</v>
+      </c>
+      <c r="K22" s="25">
+        <v>13872.65</v>
+      </c>
+      <c r="L22" s="25">
+        <v>13993.56</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>7000</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>-8534.43</v>
+      </c>
+      <c r="R22" s="25">
+        <v>559839.73</v>
+      </c>
+      <c r="S22" s="19">
+        <f t="shared" si="0"/>
+        <v>-35046.020000000135</v>
+      </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="29"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="29"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="29"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502D68C-813F-42C4-8CE1-B2B6E0D88758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A849A1-A072-4F0A-9093-8B4B2BE849D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年10月10日更新 顺道设定信用卡还款</t>
+    <t>2020年11月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4890,6 +4890,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4F8588-31D0-4152-908E-E4868EF782A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6613,11 +6667,115 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2048" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E81CB99-E9CC-4BCF-B407-FF00A81A9B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A122A15A-23BB-486F-9395-403D9243A087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6919,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7398,11 +7556,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A849A1-A072-4F0A-9093-8B4B2BE849D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666E028-7BDC-4876-A61F-2F946E08C334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年11月10日更新 顺道设定信用卡还款</t>
+    <t>2020年12月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1480,19 +1480,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>35337.230000000003</c:v>
+                  <c:v>43847.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101876.89</c:v>
+                  <c:v>104114.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27866.21</c:v>
+                  <c:v>31228.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>396293.83</c:v>
+                  <c:v>395234.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4944,6 +4944,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75820C10-31F1-4D5F-AD2B-690D2A86B459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6775,6 +6829,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE5BED9-3E9E-4EFF-9BAC-2D198997119F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DACBEA-18F1-4CB6-AFCE-BBCEDD38654F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7077,8 +7239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:R18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7098,7 +7260,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>35337.230000000003</v>
+        <f>22821.27+21026.23</f>
+        <v>43847.5</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>62</v>
@@ -7139,7 +7302,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>11802.800000000003</v>
+        <v>19769.78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -7149,29 +7312,29 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>41559.699999999997</v>
+        <v>41653.199999999997</v>
       </c>
       <c r="H2" s="4">
-        <v>20621.62</v>
+        <v>20667.91</v>
       </c>
       <c r="I2" s="4">
-        <v>10310.27</v>
+        <v>10333.370000000001</v>
       </c>
       <c r="J2" s="4">
-        <v>10627.81</v>
+        <v>10651.92</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>35337.230000000003</v>
+        <v>43847.5</v>
       </c>
       <c r="M2" s="2">
         <f>E3</f>
-        <v>101876.89</v>
+        <v>104114.44</v>
       </c>
       <c r="N2" s="2">
         <f>E11-G12</f>
-        <v>27866.21</v>
+        <v>31228.82</v>
       </c>
       <c r="O2" s="2">
         <f>G12</f>
@@ -7179,7 +7342,7 @@
       </c>
       <c r="P2" s="2">
         <f>E8</f>
-        <v>396293.83</v>
+        <v>395234.78</v>
       </c>
       <c r="Q2" s="2">
         <f>G14</f>
@@ -7196,11 +7359,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>23534.43</v>
+        <v>24077.72</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>101876.89</v>
+        <v>104114.44</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -7219,7 +7382,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>4155.62</v>
+        <v>7203.14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -7241,32 +7404,35 @@
         <v>11</v>
       </c>
       <c r="B5" s="5">
-        <v>4378.8100000000004</v>
+        <v>1874.58</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
-        <v>60317.19</v>
+        <v>62461.24</v>
       </c>
       <c r="H5" s="4">
-        <v>10045.74</v>
+        <v>10069.61</v>
       </c>
       <c r="I5" s="4">
-        <v>10048.9</v>
+        <v>10069.030000000001</v>
       </c>
       <c r="J5" s="4">
-        <v>10056.91</v>
+        <v>10079.48</v>
       </c>
       <c r="K5" s="4">
-        <v>10056.91</v>
+        <v>10079.48</v>
       </c>
       <c r="L5" s="4">
-        <v>10057.9</v>
+        <v>10080.469999999999</v>
       </c>
       <c r="M5" s="2">
-        <v>10050.83</v>
+        <v>10070.969999999999</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2012.2</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7298,11 +7464,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>297345</v>
+        <v>295410</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.61</f>
-        <v>297345</v>
+        <f>(59000-5500+11000)*4.58</f>
+        <v>295410</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -7317,20 +7483,20 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>396293.83</v>
+        <v>395234.78</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>28578</v>
+        <v>29190</v>
       </c>
       <c r="H8" s="4">
-        <v>18216</v>
+        <v>18150</v>
       </c>
       <c r="I8" s="4">
-        <v>10362</v>
+        <v>11040</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -7347,10 +7513,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>70370.83</v>
+        <v>70634.78</v>
       </c>
       <c r="H9" s="4">
-        <v>70370.83</v>
+        <v>70634.78</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7371,10 +7537,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>13872.65</v>
+        <v>14484.76</v>
       </c>
       <c r="H10" s="4">
-        <v>13872.65</v>
+        <v>14484.76</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7389,17 +7555,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>27866.21</v>
+        <v>31228.82</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>13993.56</v>
+        <v>16744.060000000001</v>
       </c>
       <c r="H11" s="4">
-        <v>13993.56</v>
+        <v>16744.060000000001</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -7515,7 +7681,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>559839.73</v>
+        <v>572347.82000000007</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -7556,11 +7722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7594,11 +7760,11 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>35337.230000000003</v>
+        <v>43847.5</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>41559.699999999997</v>
+        <v>41653.199999999997</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -7610,27 +7776,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>60317.19</v>
+        <v>62461.24</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>297345</v>
+        <v>295410</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>28578</v>
+        <v>29190</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>70370.83</v>
+        <v>70634.78</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>13872.65</v>
+        <v>14484.76</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>13993.56</v>
+        <v>16744.060000000001</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -7650,11 +7816,11 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-8534.43</v>
+        <v>-9077.7200000000012</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>559839.73</v>
+        <v>572347.82000000007</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -7851,7 +8017,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S22" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S23" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -8768,24 +8934,59 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
+      <c r="B23" s="24">
+        <v>44175</v>
+      </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="26"/>
+      <c r="D23" s="25">
+        <v>41653.199999999997</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>62461.24</v>
+      </c>
+      <c r="H23" s="25">
+        <v>295410</v>
+      </c>
+      <c r="I23" s="25">
+        <v>29190</v>
+      </c>
+      <c r="J23" s="25">
+        <v>70634.78</v>
+      </c>
+      <c r="K23" s="25">
+        <v>14484.76</v>
+      </c>
+      <c r="L23" s="25">
+        <v>16744.060000000001</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0</v>
+      </c>
+      <c r="N23" s="25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+      <c r="P23" s="25">
+        <v>7000</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>-9077.7200000000012</v>
+      </c>
+      <c r="R23" s="25">
+        <v>572347.82000000007</v>
+      </c>
+      <c r="S23" s="19">
+        <f t="shared" si="0"/>
+        <v>12508.090000000084</v>
+      </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="24"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666E028-7BDC-4876-A61F-2F946E08C334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7FBE0-BAC7-4004-BE5B-A0EA6D39C7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -4998,6 +4998,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC9E579-1281-4BDE-AF3E-5856C6A743A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6937,6 +6991,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2902DE-291C-4093-BD07-344FA497F310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2055" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B97488-CA32-474A-90A0-915084811DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7239,7 +7401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7722,11 +7884,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8937,7 +9099,9 @@
       <c r="B23" s="24">
         <v>44175</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="25">
+        <v>43847.5</v>
+      </c>
       <c r="D23" s="25">
         <v>41653.199999999997</v>
       </c>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7FBE0-BAC7-4004-BE5B-A0EA6D39C7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69698951-45C1-47D7-A126-5A2767D9514F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>余额宝</t>
   </si>
@@ -292,17 +292,11 @@
 (30% 180-366)</t>
   </si>
   <si>
-    <t>招商信用卡待还</t>
-  </si>
-  <si>
     <t>·</t>
   </si>
   <si>
     <t>支付宝定期-中期
 (30% 45-179)</t>
-  </si>
-  <si>
-    <t>广发信用卡待还</t>
   </si>
   <si>
     <t>支付宝定期-短期
@@ -477,6 +471,18 @@
     <t>2020年12月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2022年之前不买入任何含有债券的产品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商信用卡已用额度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发信用卡已用额度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +493,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -551,6 +557,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -761,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -818,6 +832,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4317,15 +4334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>367822</xdr:colOff>
+      <xdr:colOff>320197</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>314504</xdr:rowOff>
+      <xdr:rowOff>100192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>599057</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38938</xdr:rowOff>
+      <xdr:colOff>551432</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5052,6 +5069,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E841ACD5-B66B-4730-81FE-6B5A1F9271BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7064,6 +7135,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B97488-CA32-474A-90A0-915084811DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2056" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA1503-A48B-4F68-BB7B-275EFD1BD398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2057" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F9BBA1-5B2A-4C39-9E51-A4B6EC996E0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7402,7 +7581,7 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7426,7 +7605,7 @@
         <v>43847.5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
@@ -7437,25 +7616,25 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7541,16 +7720,16 @@
     </row>
     <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5">
         <v>7203.14</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:P4)</f>
@@ -7563,13 +7742,13 @@
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5">
         <v>1874.58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:P5)</f>
@@ -7599,7 +7778,7 @@
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>3000</v>
@@ -7613,16 +7792,16 @@
     </row>
     <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>3000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
@@ -7638,7 +7817,7 @@
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -7648,7 +7827,7 @@
         <v>395234.78</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
@@ -7665,13 +7844,13 @@
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
@@ -7686,16 +7865,16 @@
     </row>
     <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
@@ -7710,7 +7889,7 @@
     </row>
     <row r="11" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>9000</v>
@@ -7720,7 +7899,7 @@
         <v>31228.82</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -7735,13 +7914,13 @@
     </row>
     <row r="12" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -7756,10 +7935,10 @@
     </row>
     <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -7774,14 +7953,14 @@
     </row>
     <row r="14" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8"/>
       <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
@@ -7794,7 +7973,7 @@
     </row>
     <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>5500</v>
@@ -7812,13 +7991,13 @@
     </row>
     <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>53500</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:P16)</f>
@@ -7833,7 +8012,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>10000</v>
@@ -7851,23 +8030,22 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>11000</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="2"/>
-    </row>
+    <row r="19" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
@@ -7888,7 +8066,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7910,15 +8088,15 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
@@ -7989,27 +8167,27 @@
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
@@ -8017,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -8026,46 +8204,46 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="M4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="28"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69698951-45C1-47D7-A126-5A2767D9514F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C21CA6-AE29-482A-8417-A9F10F10D601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>中证500</t>
   </si>
   <si>
-    <t>花呗</t>
-  </si>
-  <si>
     <t>债券类基金</t>
   </si>
   <si>
@@ -432,10 +429,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>余额宝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>定期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -481,6 +474,16 @@
   </si>
   <si>
     <t>广发信用卡已用额度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1到账
+(股票账户的余额)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0到账
+(现金 活期 币基)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -825,6 +828,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,9 +838,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,6 +1131,33 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-8D5D-6E46-85A7-76AA6F98A9F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6232-42F8-899C-5F554274E097}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1428,6 +1458,50 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-6232-42F8-899C-5F554274E097}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1463,28 +1537,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>配置计划!$L$1:$R$1</c:f>
+              <c:f>配置计划!$L$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>余额宝</c:v>
+                  <c:v>T0到账
+(现金 活期 币基)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>T1到账
+(股票账户的余额)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>理财</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>基金</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>债券</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>股票</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>定期</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>债权</c:v>
                 </c:pt>
               </c:strCache>
@@ -1492,29 +1571,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>配置计划!$L$2:$R$2</c:f>
+              <c:f>配置计划!$L$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>43847.5</c:v>
+                  <c:v>123079.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104114.44</c:v>
+                  <c:v>70770.850000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31228.82</c:v>
+                  <c:v>20758.309999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>36126.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>395234.78</c:v>
+                <c:pt idx="5">
+                  <c:v>317016</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4339,7 +4421,7 @@
       <xdr:rowOff>100192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>551432</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>181814</xdr:rowOff>
@@ -5123,6 +5205,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFD7429-D294-40BC-AC58-88887681FFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="10163175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7243,6 +7379,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F9BBA1-5B2A-4C39-9E51-A4B6EC996E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2058" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB89F696-765C-4537-B61F-31B21E7BCEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2059" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB2CA1B-3FED-4667-9D3B-1AD30451BF2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,10 +7822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AML19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7593,39 +7837,39 @@
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="4" customWidth="1"/>
     <col min="7" max="8" width="10.875" style="2" customWidth="1"/>
-    <col min="9" max="1025" width="9" style="2" customWidth="1"/>
+    <col min="9" max="1026" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>22821.27+21026.23</f>
-        <v>43847.5</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+        <f>122303.55+776.44</f>
+        <v>123079.99</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>55</v>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>54</v>
@@ -7634,16 +7878,19 @@
         <v>52</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>19769.78</v>
+        <v>101040.68000000001</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -7653,64 +7900,62 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>41653.199999999997</v>
-      </c>
-      <c r="H2" s="4">
-        <v>20667.91</v>
-      </c>
-      <c r="I2" s="4">
-        <v>10333.370000000001</v>
-      </c>
-      <c r="J2" s="4">
-        <v>10651.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>43847.5</v>
+        <v>123079.99</v>
       </c>
       <c r="M2" s="2">
+        <f>G9</f>
+        <v>70770.850000000006</v>
+      </c>
+      <c r="N2" s="2">
         <f>E3</f>
-        <v>104114.44</v>
-      </c>
-      <c r="N2" s="2">
+        <v>20758.309999999998</v>
+      </c>
+      <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>31228.82</v>
-      </c>
-      <c r="O2" s="2">
+        <v>36126.1</v>
+      </c>
+      <c r="P2" s="2">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="P2" s="2">
-        <f>E8</f>
-        <v>395234.78</v>
-      </c>
       <c r="Q2" s="2">
+        <f>G7+G8</f>
+        <v>317016</v>
+      </c>
+      <c r="R2" s="2">
         <f>G14</f>
         <v>0</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <f>E15</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>24077.72</v>
+        <v>22039.309999999998</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>104114.44</v>
+        <v>20758.309999999998</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="4">
-        <f>SUM(H3:P3)</f>
+        <f>SUM(H3:Q3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="4"/>
@@ -7718,12 +7963,13 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5">
-        <v>7203.14</v>
+        <f>50000-47870.7</f>
+        <v>2129.3000000000029</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -7732,7 +7978,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="4">
-        <f>SUM(H4:P4)</f>
+        <f>SUM(H4:Q4)</f>
         <v>0</v>
       </c>
       <c r="H4" s="8"/>
@@ -7740,43 +7986,33 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5">
-        <v>1874.58</v>
+        <f>80000-75089.99</f>
+        <v>4910.0099999999948</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <f>SUM(H5:P5)</f>
-        <v>62461.24</v>
+        <f>SUM(H5:Q5)</f>
+        <v>20758.309999999998</v>
       </c>
       <c r="H5" s="4">
-        <v>10069.61</v>
+        <v>10090.49</v>
       </c>
       <c r="I5" s="4">
-        <v>10069.030000000001</v>
-      </c>
-      <c r="J5" s="4">
-        <v>10079.48</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10079.48</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10080.469999999999</v>
-      </c>
-      <c r="M5" s="2">
-        <v>10070.969999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2012.2</v>
-      </c>
+        <v>10667.82</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -7790,7 +8026,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -7804,18 +8040,18 @@
         <v>14</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G14" si="0">SUM(H7:P7)</f>
-        <v>295410</v>
+        <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
+        <v>288960</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.58</f>
-        <v>295410</v>
+        <f>(59000-5500+11000)*4.48</f>
+        <v>288960</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -7824,25 +8060,25 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>395234.78</v>
+        <v>387786.85</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>29190</v>
+        <v>28056</v>
       </c>
       <c r="H8" s="4">
-        <v>18150</v>
+        <v>18612</v>
       </c>
       <c r="I8" s="4">
-        <v>11040</v>
+        <v>9444</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -7854,16 +8090,16 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>70634.78</v>
+        <v>70770.850000000006</v>
       </c>
       <c r="H9" s="4">
-        <v>70634.78</v>
+        <v>70770.850000000006</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7878,16 +8114,16 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>14484.76</v>
+        <v>17104.71</v>
       </c>
       <c r="H10" s="4">
-        <v>14484.76</v>
+        <v>17104.71</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -7896,31 +8132,27 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>31228.82</v>
+        <v>36126.1</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>16744.060000000001</v>
+        <v>19021.39</v>
       </c>
       <c r="H11" s="4">
-        <v>16744.060000000001</v>
+        <v>19021.39</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -7933,12 +8165,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -7951,16 +8183,16 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8"/>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
@@ -7971,9 +8203,9 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>5500</v>
@@ -7989,18 +8221,18 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>53500</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="4">
-        <f>SUM(H16:P16)</f>
+        <f>SUM(H16:Q16)</f>
         <v>7000</v>
       </c>
       <c r="H16" s="4">
@@ -8012,7 +8244,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2">
         <v>10000</v>
@@ -8022,7 +8254,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>572347.82000000007</v>
+        <v>567711.94000000006</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -8032,13 +8264,13 @@
     </row>
     <row r="18" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>11000</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>61</v>
+      <c r="G18" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -8062,11 +8294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8088,23 +8320,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>43847.5</v>
+        <v>123079.99</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
-        <v>41653.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
@@ -8116,27 +8348,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>62461.24</v>
+        <v>20758.309999999998</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>295410</v>
+        <v>288960</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>29190</v>
+        <v>28056</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>70634.78</v>
+        <v>70770.850000000006</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>14484.76</v>
+        <v>17104.71</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>16744.060000000001</v>
+        <v>19021.39</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -8156,46 +8388,46 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-9077.7200000000012</v>
+        <v>-7039.3099999999977</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>572347.82000000007</v>
+        <v>567711.93999999994</v>
       </c>
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29" t="s">
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -8204,16 +8436,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>14</v>
@@ -8222,31 +8454,31 @@
         <v>16</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="28"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="20">
@@ -8357,7 +8589,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S23" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S24" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -9331,24 +9563,61 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
+      <c r="B24" s="24">
+        <v>44197</v>
+      </c>
+      <c r="C24" s="25">
+        <v>123079.99</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>20758.309999999998</v>
+      </c>
+      <c r="H24" s="25">
+        <v>288960</v>
+      </c>
+      <c r="I24" s="25">
+        <v>28056</v>
+      </c>
+      <c r="J24" s="25">
+        <v>70770.850000000006</v>
+      </c>
+      <c r="K24" s="25">
+        <v>17104.71</v>
+      </c>
+      <c r="L24" s="25">
+        <v>19021.39</v>
+      </c>
+      <c r="M24" s="25">
+        <v>0</v>
+      </c>
+      <c r="N24" s="25">
+        <v>0</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <v>7000</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>-7039.3099999999977</v>
+      </c>
+      <c r="R24" s="25">
+        <v>567711.93999999994</v>
+      </c>
+      <c r="S24" s="19">
+        <f t="shared" si="0"/>
+        <v>-4635.8800000001211</v>
+      </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="24"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C21CA6-AE29-482A-8417-A9F10F10D601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB6C787-7D50-4145-AB31-670AE5B3E5C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2020年12月10日更新 顺道设定信用卡还款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2022年之前不买入任何含有债券的产品</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -484,6 +480,10 @@
   <si>
     <t>T0到账
 (现金 活期 币基)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年01月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1576,22 +1576,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>123079.99</c:v>
+                  <c:v>152408.67000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70770.850000000006</c:v>
+                  <c:v>70792.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20758.309999999998</c:v>
+                  <c:v>10104.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36126.1</c:v>
+                  <c:v>37599.410000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317016</c:v>
+                  <c:v>315402</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5259,6 +5259,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E3248D-6D04-4028-BF00-183D2C60C7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="10163175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7487,6 +7541,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB2CA1B-3FED-4667-9D3B-1AD30451BF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2060" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5721D6-26CA-4C77-A785-C77BCBD70B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2061" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7855C90-C055-4861-B2BC-32D8F9A023CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7825,7 +7987,7 @@
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7845,11 +8007,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>122303.55+776.44</f>
-        <v>123079.99</v>
+        <f>133067.17+19341.5</f>
+        <v>152408.67000000001</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -7860,10 +8022,10 @@
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>53</v>
@@ -7890,7 +8052,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>101040.68000000001</v>
+        <v>134346.71000000002</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -7908,19 +8070,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>123079.99</v>
+        <v>152408.67000000001</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>70770.850000000006</v>
+        <v>70792.67</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>20758.309999999998</v>
+        <v>10104.41</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>36126.1</v>
+        <v>37599.410000000003</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -7928,7 +8090,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>317016</v>
+        <v>315402</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -7945,11 +8107,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>22039.309999999998</v>
+        <v>18061.960000000006</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>20758.309999999998</v>
+        <v>10104.41</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -7965,11 +8127,11 @@
     </row>
     <row r="4" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-47870.7</f>
-        <v>2129.3000000000029</v>
+        <f>50000-47794.7</f>
+        <v>2205.3000000000029</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -7988,25 +8150,23 @@
     </row>
     <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5">
-        <f>80000-75089.99</f>
-        <v>4910.0099999999948</v>
+        <f>80000-74143.34</f>
+        <v>5856.6600000000035</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>20758.309999999998</v>
+        <v>10104.41</v>
       </c>
       <c r="H5" s="4">
-        <v>10090.49</v>
-      </c>
-      <c r="I5" s="4">
-        <v>10667.82</v>
-      </c>
+        <v>10104.41</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8060,20 +8220,20 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>387786.85</v>
+        <v>386194.67</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>28056</v>
+        <v>26442</v>
       </c>
       <c r="H8" s="4">
-        <v>18612</v>
+        <v>18150</v>
       </c>
       <c r="I8" s="4">
-        <v>9444</v>
+        <v>8292</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -8090,10 +8250,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>70770.850000000006</v>
+        <v>70792.67</v>
       </c>
       <c r="H9" s="4">
-        <v>70770.850000000006</v>
+        <v>70792.67</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -8114,10 +8274,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>17104.71</v>
+        <v>17234.060000000001</v>
       </c>
       <c r="H10" s="4">
-        <v>17104.71</v>
+        <v>17234.060000000001</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -8128,21 +8288,21 @@
         <v>22</v>
       </c>
       <c r="B11" s="5">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>36126.1</v>
+        <v>37599.410000000003</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>19021.39</v>
+        <v>20365.349999999999</v>
       </c>
       <c r="H11" s="4">
-        <v>19021.39</v>
+        <v>20365.349999999999</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -8254,7 +8414,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>567711.94000000006</v>
+        <v>585245.19999999984</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -8270,7 +8430,7 @@
         <v>11000</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -8298,7 +8458,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8332,7 +8492,7 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>123079.99</v>
+        <v>152408.67000000001</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -8348,7 +8508,7 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>20758.309999999998</v>
+        <v>10104.41</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
@@ -8356,19 +8516,19 @@
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>28056</v>
+        <v>26442</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>70770.850000000006</v>
+        <v>70792.67</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>17104.71</v>
+        <v>17234.060000000001</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>19021.39</v>
+        <v>20365.349999999999</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -8388,11 +8548,11 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-7039.3099999999977</v>
+        <v>-8061.9600000000064</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>567711.93999999994</v>
+        <v>585245.20000000007</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -8589,7 +8749,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S24" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S25" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -9620,24 +9780,61 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="26"/>
+      <c r="B25" s="24">
+        <v>44206</v>
+      </c>
+      <c r="C25" s="25">
+        <v>152408.67000000001</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>10104.41</v>
+      </c>
+      <c r="H25" s="25">
+        <v>288960</v>
+      </c>
+      <c r="I25" s="25">
+        <v>26442</v>
+      </c>
+      <c r="J25" s="25">
+        <v>70792.67</v>
+      </c>
+      <c r="K25" s="25">
+        <v>17234.060000000001</v>
+      </c>
+      <c r="L25" s="25">
+        <v>20365.349999999999</v>
+      </c>
+      <c r="M25" s="25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="25">
+        <v>7000</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>-8061.9600000000064</v>
+      </c>
+      <c r="R25" s="25">
+        <v>585245.20000000007</v>
+      </c>
+      <c r="S25" s="19">
+        <f t="shared" si="0"/>
+        <v>17533.260000000126</v>
+      </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB6C787-7D50-4145-AB31-670AE5B3E5C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF6285-2BD8-4076-A3C8-9DB425B4D381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,14 +295,6 @@
     <t>·</t>
   </si>
   <si>
-    <t>支付宝定期-中期
-(30% 45-179)</t>
-  </si>
-  <si>
-    <t>支付宝定期-短期
-(40% 0-45 一级机动)</t>
-  </si>
-  <si>
     <t>0级机动资金</t>
   </si>
   <si>
@@ -483,7 +475,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2021年01月10日更新 顺道设定信用卡还款</t>
+    <t>招行理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行活期+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年02月07日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1576,22 +1576,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>152408.67000000001</c:v>
+                  <c:v>51871.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70792.67</c:v>
+                  <c:v>75697.289999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10104.41</c:v>
+                  <c:v>155914.23999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37599.410000000003</c:v>
+                  <c:v>38397.660000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315402</c:v>
+                  <c:v>317532</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5313,6 +5313,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248C55FB-C43E-438C-A878-C1516467749D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="10163175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7649,6 +7703,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7855C90-C055-4861-B2BC-32D8F9A023CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2062" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA0CEF7-1AEF-4C73-AB69-881CFBA45585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2063" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE6381A-2FC1-4F59-8305-98315044E01E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7987,7 +8149,7 @@
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8007,8 +8169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>133067.17+19341.5</f>
-        <v>152408.67000000001</v>
+        <v>51871.81</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>63</v>
@@ -8022,28 +8183,28 @@
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8052,7 +8213,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>134346.71000000002</v>
+        <v>39178.680000000008</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -8070,19 +8231,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>152408.67000000001</v>
+        <v>51871.81</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>70792.67</v>
+        <v>75697.289999999994</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>10104.41</v>
+        <v>155914.23999999999</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>37599.410000000003</v>
+        <v>38397.660000000003</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -8090,7 +8251,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>315402</v>
+        <v>317532</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -8107,11 +8268,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>18061.960000000006</v>
+        <v>12693.12999999999</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>10104.41</v>
+        <v>155914.23999999999</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -8127,46 +8288,50 @@
     </row>
     <row r="4" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-47794.7</f>
-        <v>2205.3000000000029</v>
+        <f>50000-49674.66</f>
+        <v>325.33999999999651</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>30028.82</v>
+      </c>
+      <c r="H4" s="4">
+        <v>30028.82</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5">
-        <f>80000-74143.34</f>
-        <v>5856.6600000000035</v>
+        <f>80000-77632.21</f>
+        <v>2367.7899999999936</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>10104.41</v>
+        <v>125885.42</v>
       </c>
       <c r="H5" s="4">
-        <v>10104.41</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>105863.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20021.919999999998</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8174,7 +8339,7 @@
     </row>
     <row r="6" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>3000</v>
@@ -8188,24 +8353,24 @@
     </row>
     <row r="7" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>3000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
-        <v>288960</v>
+        <v>292830</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.48</f>
-        <v>288960</v>
+        <f>(59000-5500+11000)*4.54</f>
+        <v>292830</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -8213,47 +8378,47 @@
     </row>
     <row r="8" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>386194.67</v>
+        <v>393229.29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>26442</v>
+        <v>24702</v>
       </c>
       <c r="H8" s="4">
-        <v>18150</v>
+        <v>17292</v>
       </c>
       <c r="I8" s="4">
-        <v>8292</v>
+        <v>7410</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>70792.67</v>
+        <v>75697.289999999994</v>
       </c>
       <c r="H9" s="4">
-        <v>70792.67</v>
+        <v>75697.289999999994</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -8261,23 +8426,23 @@
     </row>
     <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>17234.060000000001</v>
+        <v>16742.849999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>17234.060000000001</v>
+        <v>16742.849999999999</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -8285,24 +8450,24 @@
     </row>
     <row r="11" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>4000</v>
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>37599.410000000003</v>
+        <v>38397.660000000003</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>20365.349999999999</v>
+        <v>21654.81</v>
       </c>
       <c r="H11" s="4">
-        <v>20365.349999999999</v>
+        <v>21654.81</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -8312,7 +8477,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -8327,10 +8492,10 @@
     </row>
     <row r="13" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -8345,14 +8510,14 @@
     </row>
     <row r="14" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8"/>
       <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
@@ -8365,7 +8530,7 @@
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2">
         <v>5500</v>
@@ -8383,13 +8548,13 @@
     </row>
     <row r="16" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>53500</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:Q16)</f>
@@ -8404,7 +8569,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>10000</v>
@@ -8414,7 +8579,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>585245.19999999984</v>
+        <v>643719.87</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -8424,13 +8589,13 @@
     </row>
     <row r="18" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
         <v>11000</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -8458,7 +8623,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8480,19 +8645,19 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>152408.67000000001</v>
+        <v>51871.81</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -8504,31 +8669,31 @@
       </c>
       <c r="F2" s="12">
         <f>配置计划!G4</f>
-        <v>0</v>
+        <v>30028.82</v>
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>10104.41</v>
+        <v>125885.42</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>288960</v>
+        <v>292830</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>26442</v>
+        <v>24702</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>70792.67</v>
+        <v>75697.289999999994</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>17234.060000000001</v>
+        <v>16742.849999999999</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>20365.349999999999</v>
+        <v>21654.81</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -8548,38 +8713,38 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-8061.9600000000064</v>
+        <v>-2693.1299999999901</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>585245.20000000007</v>
+        <v>643719.87000000011</v>
       </c>
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
@@ -8587,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
@@ -8596,46 +8761,46 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="K4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="M4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="R4" s="30"/>
       <c r="S4" s="29"/>
@@ -8749,7 +8914,7 @@
         <v>218723.05</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S25" si="0">R6-R5</f>
+        <f t="shared" ref="S6:S26" si="0">R6-R5</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -9837,24 +10002,61 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="26"/>
+      <c r="B26" s="24">
+        <v>44234</v>
+      </c>
+      <c r="C26" s="25">
+        <v>51871.81</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>30028.82</v>
+      </c>
+      <c r="G26" s="25">
+        <v>125885.42</v>
+      </c>
+      <c r="H26" s="25">
+        <v>292830</v>
+      </c>
+      <c r="I26" s="25">
+        <v>24702</v>
+      </c>
+      <c r="J26" s="25">
+        <v>75697.289999999994</v>
+      </c>
+      <c r="K26" s="25">
+        <v>16742.849999999999</v>
+      </c>
+      <c r="L26" s="25">
+        <v>21654.81</v>
+      </c>
+      <c r="M26" s="25">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <v>7000</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>-2693.1299999999901</v>
+      </c>
+      <c r="R26" s="25">
+        <v>643719.87000000011</v>
+      </c>
+      <c r="S26" s="19">
+        <f t="shared" si="0"/>
+        <v>58474.670000000042</v>
+      </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF6285-2BD8-4076-A3C8-9DB425B4D381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896051A-4FDD-47CC-B58E-A08B314CCC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="1" shapeId="0" xr:uid="{C56D3DC1-A6D5-475B-AD32-1D279476566C}">
+    <comment ref="S23" authorId="1" shapeId="0" xr:uid="{C56D3DC1-A6D5-475B-AD32-1D279476566C}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>余额宝</t>
   </si>
@@ -281,15 +281,7 @@
     <t>支付宝定期</t>
   </si>
   <si>
-    <t>支付宝定期-固定
-(定额 30 二级机动）</t>
-  </si>
-  <si>
     <t>底线资金</t>
-  </si>
-  <si>
-    <t>支付宝定期-长期
-(30% 180-366)</t>
   </si>
   <si>
     <t>·</t>
@@ -382,23 +374,11 @@
   </si>
   <si>
     <t>支付宝定期
--定额</t>
-  </si>
-  <si>
-    <t>支付宝定期
--长期</t>
-  </si>
-  <si>
-    <t>支付宝定期
 -中期</t>
   </si>
   <si>
     <t>支付宝定期
 -短期</t>
-  </si>
-  <si>
-    <t>股票账户余额
-及可转债</t>
   </si>
   <si>
     <t>中证300</t>
@@ -457,14 +437,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>招商信用卡已用额度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发信用卡已用额度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>T1到账
 (股票账户的余额)</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -475,15 +447,81 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>招行理财</t>
+    <t>2021年02月07日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>招行活期+</t>
+    <r>
+      <t>招商信用卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已用额度</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2021年02月07日更新 顺道设定信用卡还款</t>
+    <r>
+      <t>广发信用卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已用额度</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储银行理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝定期
+-长期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝定期
+-定额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券现金及可转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03起</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储理财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商理财</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +534,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -570,6 +608,20 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -778,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -831,6 +883,9 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,6 +894,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5367,6 +5428,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489280B6-23C7-49E0-93C7-0E5E64A9834A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="10163175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5382,7 +5497,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5431,7 +5546,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5480,7 +5595,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5534,7 +5649,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5588,7 +5703,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5642,7 +5757,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5696,7 +5811,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5750,7 +5865,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5804,7 +5919,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5858,7 +5973,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5912,7 +6027,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5966,7 +6081,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6020,7 +6135,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6074,7 +6189,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6128,7 +6243,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6182,7 +6297,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6236,7 +6351,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6290,7 +6405,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6344,7 +6459,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6398,7 +6513,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6452,7 +6567,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6506,7 +6621,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6560,7 +6675,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6614,7 +6729,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6668,7 +6783,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6722,7 +6837,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6776,7 +6891,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6830,7 +6945,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6884,7 +6999,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6938,7 +7053,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6992,7 +7107,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7046,7 +7161,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7100,7 +7215,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7154,7 +7269,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7208,7 +7323,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7262,7 +7377,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7316,7 +7431,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7370,7 +7485,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7424,7 +7539,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7478,7 +7593,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7532,7 +7647,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7586,7 +7701,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7640,7 +7755,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7694,7 +7809,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7748,7 +7863,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7802,7 +7917,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7811,6 +7926,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE6381A-2FC1-4F59-8305-98315044E01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2064" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C307BA-B463-4819-9F4F-DEE21C0A762E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2065" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D916BDBF-3EFF-4D5D-AD3C-5F4D55F6C4E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8148,8 +8371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8171,11 +8394,11 @@
       <c r="B1" s="5">
         <v>51871.81</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="D1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8183,28 +8406,28 @@
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8219,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
@@ -8264,7 +8487,7 @@
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
@@ -8275,7 +8498,7 @@
         <v>155914.23999999999</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(H3:Q3)</f>
@@ -8288,17 +8511,17 @@
     </row>
     <row r="4" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5">
         <f>50000-49674.66</f>
         <v>325.33999999999651</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:Q4)</f>
@@ -8313,14 +8536,14 @@
     </row>
     <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5">
         <f>80000-77632.21</f>
         <v>2367.7899999999936</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
@@ -8339,7 +8562,7 @@
     </row>
     <row r="6" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
         <v>3000</v>
@@ -8353,16 +8576,16 @@
     </row>
     <row r="7" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
         <v>3000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
@@ -8378,7 +8601,7 @@
     </row>
     <row r="8" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -8388,7 +8611,7 @@
         <v>393229.29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
@@ -8405,13 +8628,13 @@
     </row>
     <row r="9" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
@@ -8426,16 +8649,16 @@
     </row>
     <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
@@ -8450,7 +8673,7 @@
     </row>
     <row r="11" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <v>4000</v>
@@ -8460,7 +8683,7 @@
         <v>38397.660000000003</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -8477,7 +8700,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -8492,10 +8715,10 @@
     </row>
     <row r="13" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -8510,14 +8733,14 @@
     </row>
     <row r="14" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8"/>
       <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
@@ -8530,7 +8753,7 @@
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>5500</v>
@@ -8548,13 +8771,13 @@
     </row>
     <row r="16" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>53500</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:Q16)</f>
@@ -8569,7 +8792,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>10000</v>
@@ -8589,13 +8812,13 @@
     </row>
     <row r="18" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>11000</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -8617,13 +8840,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:S28"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8633,8 +8856,7 @@
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="9" max="10" width="9.25" customWidth="1"/>
     <col min="11" max="13" width="9.875" customWidth="1"/>
     <col min="14" max="14" width="9.125" customWidth="1"/>
     <col min="15" max="16" width="9.875" customWidth="1"/>
@@ -8645,15 +8867,15 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
@@ -8724,239 +8946,234 @@
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
+    </row>
+    <row r="4" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="29" t="s">
+      <c r="G4" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="H4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="M4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="O4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="P4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="29"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="20">
-        <v>43656</v>
-      </c>
-      <c r="C5" s="18">
-        <v>25096.03</v>
-      </c>
-      <c r="D5" s="18">
-        <v>41706.559999999998</v>
-      </c>
-      <c r="E5" s="18">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="18">
-        <v>10016.9</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>39032</v>
-      </c>
-      <c r="I5" s="18">
-        <v>5488</v>
-      </c>
-      <c r="J5" s="18">
-        <v>5057.91</v>
-      </c>
-      <c r="K5" s="18">
-        <v>14938.45</v>
-      </c>
-      <c r="L5" s="18">
-        <v>12322.5</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
-        <v>1729.67</v>
-      </c>
-      <c r="O5" s="18">
-        <v>20000</v>
-      </c>
-      <c r="P5" s="18">
-        <v>11000</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>-2932.57</v>
-      </c>
-      <c r="R5" s="18">
-        <v>203455.5</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
+      <c r="B5" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
-        <v>43689</v>
+        <v>43656</v>
       </c>
       <c r="C6" s="18">
-        <v>27148.47</v>
+        <v>25096.03</v>
       </c>
       <c r="D6" s="18">
-        <v>41842.92</v>
+        <v>41706.559999999998</v>
       </c>
       <c r="E6" s="18">
-        <v>20338.490000000002</v>
+        <v>20000</v>
       </c>
       <c r="F6" s="18">
-        <v>10045.74</v>
+        <v>10016.9</v>
       </c>
       <c r="G6" s="18">
         <v>0</v>
       </c>
       <c r="H6" s="18">
-        <v>47558</v>
+        <v>39032</v>
       </c>
       <c r="I6" s="18">
-        <v>8532</v>
+        <v>5488</v>
       </c>
       <c r="J6" s="18">
-        <v>12.96</v>
+        <v>5057.91</v>
       </c>
       <c r="K6" s="18">
-        <v>18132.89</v>
+        <v>14938.45</v>
       </c>
       <c r="L6" s="18">
-        <v>17031.580000000002</v>
+        <v>12322.5</v>
       </c>
       <c r="M6" s="18">
         <v>0</v>
       </c>
       <c r="N6" s="18">
-        <v>1060</v>
+        <v>1729.67</v>
       </c>
       <c r="O6" s="18">
         <v>20000</v>
       </c>
       <c r="P6" s="18">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" s="18">
-        <v>-1980</v>
+        <v>-2932.57</v>
       </c>
       <c r="R6" s="18">
-        <v>218723.05</v>
+        <v>203455.5</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" ref="S6:S26" si="0">R6-R5</f>
-        <v>15267.549999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="20">
-        <v>43719</v>
+        <v>43689</v>
       </c>
       <c r="C7" s="18">
-        <v>28302.28</v>
+        <v>27148.47</v>
       </c>
       <c r="D7" s="18">
-        <v>41966.9</v>
+        <v>41842.92</v>
       </c>
       <c r="E7" s="18">
-        <v>20381.89</v>
+        <v>20338.490000000002</v>
       </c>
       <c r="F7" s="18">
-        <v>10073.59</v>
+        <v>10045.74</v>
       </c>
       <c r="G7" s="18">
         <v>0</v>
       </c>
       <c r="H7" s="18">
-        <v>59996</v>
+        <v>47558</v>
       </c>
       <c r="I7" s="18">
-        <v>9372</v>
+        <v>8532</v>
       </c>
       <c r="J7" s="18">
-        <v>1202.18</v>
+        <v>12.96</v>
       </c>
       <c r="K7" s="18">
-        <v>21584.31</v>
+        <v>18132.89</v>
       </c>
       <c r="L7" s="18">
-        <v>22174.17</v>
+        <v>17031.580000000002</v>
       </c>
       <c r="M7" s="18">
         <v>0</v>
       </c>
       <c r="N7" s="18">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="O7" s="18">
         <v>20000</v>
@@ -8965,112 +9182,112 @@
         <v>9000</v>
       </c>
       <c r="Q7" s="18">
+        <v>-1980</v>
+      </c>
+      <c r="R7" s="18">
+        <v>218723.05</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" ref="S7:S27" si="0">R7-R6</f>
+        <v>15267.549999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="20">
+        <v>43719</v>
+      </c>
+      <c r="C8" s="18">
+        <v>28302.28</v>
+      </c>
+      <c r="D8" s="18">
+        <v>41966.9</v>
+      </c>
+      <c r="E8" s="18">
+        <v>20381.89</v>
+      </c>
+      <c r="F8" s="18">
+        <v>10073.59</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>59996</v>
+      </c>
+      <c r="I8" s="18">
+        <v>9372</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1202.18</v>
+      </c>
+      <c r="K8" s="18">
+        <v>21584.31</v>
+      </c>
+      <c r="L8" s="18">
+        <v>22174.17</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <v>20000</v>
+      </c>
+      <c r="P8" s="18">
+        <v>9000</v>
+      </c>
+      <c r="Q8" s="18">
         <v>-15450.21</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R8" s="18">
         <v>228603.11</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S8" s="19">
         <f t="shared" si="0"/>
         <v>9880.0599999999977</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="17">
-        <v>43752</v>
-      </c>
-      <c r="C8" s="18">
-        <v>17637</v>
-      </c>
-      <c r="D8" s="18">
-        <v>42105.55</v>
-      </c>
-      <c r="E8" s="18">
-        <v>20429.63</v>
-      </c>
-      <c r="F8" s="18">
-        <v>10100.44</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1001.75</v>
-      </c>
-      <c r="H8" s="18">
-        <v>60420</v>
-      </c>
-      <c r="I8" s="18">
-        <v>8936</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1204.3499999999999</v>
-      </c>
-      <c r="K8" s="18">
-        <v>23797.48</v>
-      </c>
-      <c r="L8" s="18">
-        <v>23850.55</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>20000</v>
-      </c>
-      <c r="P8" s="18">
-        <v>9000</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>-5202.49</v>
-      </c>
-      <c r="R8" s="18">
-        <v>233280.26</v>
-      </c>
-      <c r="S8" s="19">
-        <f t="shared" si="0"/>
-        <v>4677.1500000000233</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="17">
-        <v>43780</v>
+        <v>43752</v>
       </c>
       <c r="C9" s="18">
-        <v>16905.240000000002</v>
+        <v>17637</v>
       </c>
       <c r="D9" s="18">
-        <v>42223.91</v>
+        <v>42105.55</v>
       </c>
       <c r="E9" s="18">
-        <v>20470.13</v>
+        <v>20429.63</v>
       </c>
       <c r="F9" s="18">
-        <v>10122.31</v>
+        <v>10100.44</v>
       </c>
       <c r="G9" s="18">
-        <v>1001.8</v>
+        <v>1001.75</v>
       </c>
       <c r="H9" s="18">
-        <v>59360</v>
+        <v>60420</v>
       </c>
       <c r="I9" s="18">
-        <v>8448</v>
+        <v>8936</v>
       </c>
       <c r="J9" s="18">
-        <v>6493.34</v>
+        <v>1204.3499999999999</v>
       </c>
       <c r="K9" s="18">
-        <v>26413.61</v>
+        <v>23797.48</v>
       </c>
       <c r="L9" s="18">
-        <v>25749.3</v>
+        <v>23850.55</v>
       </c>
       <c r="M9" s="18">
         <v>0</v>
       </c>
       <c r="N9" s="18">
-        <v>110.03</v>
+        <v>0</v>
       </c>
       <c r="O9" s="18">
         <v>20000</v>
@@ -9079,55 +9296,55 @@
         <v>9000</v>
       </c>
       <c r="Q9" s="18">
-        <v>-1905.04</v>
+        <v>-5202.49</v>
       </c>
       <c r="R9" s="18">
-        <v>244392.63</v>
+        <v>233280.26</v>
       </c>
       <c r="S9" s="19">
         <f t="shared" si="0"/>
-        <v>11112.369999999995</v>
+        <v>4677.1500000000233</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
-        <v>43809</v>
+        <v>43780</v>
       </c>
       <c r="C10" s="18">
-        <v>76153</v>
+        <v>16905.240000000002</v>
       </c>
       <c r="D10" s="18">
-        <v>42345.71</v>
+        <v>42223.91</v>
       </c>
       <c r="E10" s="18">
-        <v>20512.080000000002</v>
+        <v>20470.13</v>
       </c>
       <c r="F10" s="18">
-        <v>10151.15</v>
+        <v>10122.31</v>
       </c>
       <c r="G10" s="18">
-        <v>30020.49</v>
+        <v>1001.8</v>
       </c>
       <c r="H10" s="18">
-        <v>128780</v>
+        <v>59360</v>
       </c>
       <c r="I10" s="18">
-        <v>8776</v>
+        <v>8448</v>
       </c>
       <c r="J10" s="18">
-        <v>2875.43</v>
+        <v>6493.34</v>
       </c>
       <c r="K10" s="18">
-        <v>28786.12</v>
+        <v>26413.61</v>
       </c>
       <c r="L10" s="18">
-        <v>30464.42</v>
+        <v>25749.3</v>
       </c>
       <c r="M10" s="18">
         <v>0</v>
       </c>
       <c r="N10" s="18">
-        <v>1000.98</v>
+        <v>110.03</v>
       </c>
       <c r="O10" s="18">
         <v>20000</v>
@@ -9136,82 +9353,82 @@
         <v>9000</v>
       </c>
       <c r="Q10" s="18">
-        <v>-278.56</v>
+        <v>-1905.04</v>
       </c>
       <c r="R10" s="18">
-        <v>408586.82</v>
+        <v>244392.63</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="0"/>
-        <v>164194.19</v>
+        <v>11112.369999999995</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <v>43840</v>
+      <c r="B11" s="17">
+        <v>43809</v>
       </c>
       <c r="C11" s="18">
-        <v>19478.28</v>
+        <v>76153</v>
       </c>
       <c r="D11" s="18">
-        <v>42476.51</v>
+        <v>42345.71</v>
       </c>
       <c r="E11" s="18">
-        <v>10000</v>
+        <v>20512.080000000002</v>
       </c>
       <c r="F11" s="18">
-        <v>0</v>
+        <v>10151.15</v>
       </c>
       <c r="G11" s="18">
-        <v>50160.04</v>
+        <v>30020.49</v>
       </c>
       <c r="H11" s="18">
-        <v>132540</v>
+        <v>128780</v>
       </c>
       <c r="I11" s="18">
-        <v>0</v>
+        <v>8776</v>
       </c>
       <c r="J11" s="18">
-        <v>9006.0300000000007</v>
+        <v>2875.43</v>
       </c>
       <c r="K11" s="18">
-        <v>32264.48</v>
+        <v>28786.12</v>
       </c>
       <c r="L11" s="18">
-        <v>36093.379999999997</v>
+        <v>30464.42</v>
       </c>
       <c r="M11" s="18">
-        <v>61200</v>
+        <v>0</v>
       </c>
       <c r="N11" s="18">
-        <v>0</v>
+        <v>1000.98</v>
       </c>
       <c r="O11" s="18">
         <v>20000</v>
       </c>
       <c r="P11" s="18">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q11" s="18">
-        <v>-10254.36</v>
+        <v>-278.56</v>
       </c>
       <c r="R11" s="18">
-        <v>422964.36</v>
+        <v>408586.82</v>
       </c>
       <c r="S11" s="19">
         <f t="shared" si="0"/>
-        <v>14377.539999999979</v>
+        <v>164194.19</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="20">
-        <v>43854</v>
+        <v>43840</v>
       </c>
       <c r="C12" s="18">
-        <v>29292.67</v>
+        <v>19478.28</v>
       </c>
       <c r="D12" s="18">
-        <v>42530.26</v>
+        <v>42476.51</v>
       </c>
       <c r="E12" s="18">
         <v>10000</v>
@@ -9220,25 +9437,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <v>50230.31</v>
+        <v>50160.04</v>
       </c>
       <c r="H12" s="18">
-        <v>128545</v>
+        <v>132540</v>
       </c>
       <c r="I12" s="18">
         <v>0</v>
       </c>
       <c r="J12" s="18">
-        <v>42364.6</v>
+        <v>9006.0300000000007</v>
       </c>
       <c r="K12" s="18">
-        <v>31679.71</v>
+        <v>32264.48</v>
       </c>
       <c r="L12" s="18">
-        <v>36488.870000000003</v>
+        <v>36093.379999999997</v>
       </c>
       <c r="M12" s="18">
-        <v>61380</v>
+        <v>61200</v>
       </c>
       <c r="N12" s="18">
         <v>0</v>
@@ -9247,28 +9464,28 @@
         <v>20000</v>
       </c>
       <c r="P12" s="18">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" s="18">
-        <v>-20104.59</v>
+        <v>-10254.36</v>
       </c>
       <c r="R12" s="18">
-        <v>441406.83</v>
+        <v>422964.36</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="0"/>
-        <v>18442.47000000003</v>
+        <v>14377.539999999979</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="20">
-        <v>43871</v>
+        <v>43854</v>
       </c>
       <c r="C13" s="18">
-        <v>40368.199999999997</v>
+        <v>29292.67</v>
       </c>
       <c r="D13" s="18">
-        <v>42602.97</v>
+        <v>42530.26</v>
       </c>
       <c r="E13" s="18">
         <v>10000</v>
@@ -9277,25 +9494,25 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <v>51331.81</v>
+        <v>50230.31</v>
       </c>
       <c r="H13" s="18">
-        <v>122905</v>
+        <v>128545</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
       </c>
       <c r="J13" s="18">
-        <v>42654.07</v>
+        <v>42364.6</v>
       </c>
       <c r="K13" s="18">
-        <v>31793.200000000001</v>
+        <v>31679.71</v>
       </c>
       <c r="L13" s="18">
-        <v>37331.58</v>
+        <v>36488.870000000003</v>
       </c>
       <c r="M13" s="18">
-        <v>61740</v>
+        <v>61380</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -9307,52 +9524,52 @@
         <v>9000</v>
       </c>
       <c r="Q13" s="18">
-        <v>-16003.23</v>
+        <v>-20104.59</v>
       </c>
       <c r="R13" s="18">
-        <v>453723.6</v>
+        <v>441406.83</v>
       </c>
       <c r="S13" s="19">
         <f t="shared" si="0"/>
-        <v>12316.76999999996</v>
+        <v>18442.47000000003</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="20">
-        <v>43900</v>
+        <v>43871</v>
       </c>
       <c r="C14" s="18">
-        <v>25713.95</v>
+        <v>40368.199999999997</v>
       </c>
       <c r="D14" s="18">
-        <v>42720.71</v>
+        <v>42602.97</v>
       </c>
       <c r="E14" s="18">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F14" s="18">
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <v>50509.29</v>
+        <v>51331.81</v>
       </c>
       <c r="H14" s="18">
-        <v>125724.99999999999</v>
+        <v>122905</v>
       </c>
       <c r="I14" s="18">
         <v>0</v>
       </c>
       <c r="J14" s="18">
-        <v>53287.96</v>
+        <v>42654.07</v>
       </c>
       <c r="K14" s="18">
-        <v>35447.480000000003</v>
+        <v>31793.200000000001</v>
       </c>
       <c r="L14" s="18">
-        <v>37299.980000000003</v>
+        <v>37331.58</v>
       </c>
       <c r="M14" s="18">
-        <v>72800</v>
+        <v>61740</v>
       </c>
       <c r="N14" s="18">
         <v>0</v>
@@ -9361,28 +9578,28 @@
         <v>20000</v>
       </c>
       <c r="P14" s="18">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q14" s="18">
-        <v>-680.28</v>
+        <v>-16003.23</v>
       </c>
       <c r="R14" s="18">
-        <v>481824.08999999997</v>
+        <v>453723.6</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="0"/>
-        <v>28100.489999999991</v>
+        <v>12316.76999999996</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
-        <v>43931</v>
+        <v>43900</v>
       </c>
       <c r="C15" s="18">
-        <v>114197.53</v>
+        <v>25713.95</v>
       </c>
       <c r="D15" s="18">
-        <v>42851.53</v>
+        <v>42720.71</v>
       </c>
       <c r="E15" s="18">
         <v>0</v>
@@ -9391,55 +9608,55 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <v>40487.360000000001</v>
+        <v>50509.29</v>
       </c>
       <c r="H15" s="18">
-        <v>147630</v>
+        <v>125724.99999999999</v>
       </c>
       <c r="I15" s="18">
         <v>0</v>
       </c>
       <c r="J15" s="18">
-        <v>63447.3</v>
+        <v>53287.96</v>
       </c>
       <c r="K15" s="18">
-        <v>35801.040000000001</v>
+        <v>35447.480000000003</v>
       </c>
       <c r="L15" s="18">
-        <v>38419.51</v>
+        <v>37299.980000000003</v>
       </c>
       <c r="M15" s="18">
-        <v>0</v>
+        <v>72800</v>
       </c>
       <c r="N15" s="18">
-        <v>1950.09</v>
+        <v>0</v>
       </c>
       <c r="O15" s="18">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="P15" s="18">
         <v>19000</v>
       </c>
       <c r="Q15" s="18">
-        <v>0</v>
+        <v>-680.28</v>
       </c>
       <c r="R15" s="18">
-        <v>503784.36</v>
+        <v>481824.08999999997</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="0"/>
-        <v>21960.270000000019</v>
+        <v>28100.489999999991</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="20">
-        <v>43961</v>
+        <v>43931</v>
       </c>
       <c r="C16" s="18">
-        <v>127821.32</v>
+        <v>114197.53</v>
       </c>
       <c r="D16" s="18">
-        <v>42963.5</v>
+        <v>42851.53</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
@@ -9448,28 +9665,28 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <v>40592.67</v>
+        <v>40487.360000000001</v>
       </c>
       <c r="H16" s="18">
-        <v>146490</v>
+        <v>147630</v>
       </c>
       <c r="I16" s="18">
         <v>0</v>
       </c>
       <c r="J16" s="18">
-        <v>63771.9</v>
+        <v>63447.3</v>
       </c>
       <c r="K16" s="18">
-        <v>41053.19</v>
+        <v>35801.040000000001</v>
       </c>
       <c r="L16" s="18">
-        <v>42212.18</v>
+        <v>38419.51</v>
       </c>
       <c r="M16" s="18">
         <v>0</v>
       </c>
       <c r="N16" s="18">
-        <v>2012.25</v>
+        <v>1950.09</v>
       </c>
       <c r="O16" s="18">
         <v>0</v>
@@ -9478,25 +9695,25 @@
         <v>19000</v>
       </c>
       <c r="Q16" s="18">
-        <v>-13831.24</v>
+        <v>0</v>
       </c>
       <c r="R16" s="18">
-        <v>512085.77</v>
+        <v>503784.36</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="0"/>
-        <v>8301.4100000000326</v>
+        <v>21960.270000000019</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="20">
-        <v>43992</v>
+        <v>43961</v>
       </c>
       <c r="C17" s="18">
-        <v>71850.19</v>
+        <v>127821.32</v>
       </c>
       <c r="D17" s="18">
-        <v>43092.05</v>
+        <v>42963.5</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
@@ -9505,55 +9722,55 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <v>40713.46</v>
+        <v>40592.67</v>
       </c>
       <c r="H17" s="18">
-        <v>146205</v>
+        <v>146490</v>
       </c>
       <c r="I17" s="18">
         <v>0</v>
       </c>
       <c r="J17" s="18">
-        <v>63806.16</v>
+        <v>63771.9</v>
       </c>
       <c r="K17" s="18">
-        <v>45586.86</v>
+        <v>41053.19</v>
       </c>
       <c r="L17" s="18">
-        <v>46403.88</v>
+        <v>42212.18</v>
       </c>
       <c r="M17" s="18">
         <v>0</v>
       </c>
       <c r="N17" s="18">
-        <v>0</v>
+        <v>2012.25</v>
       </c>
       <c r="O17" s="18">
         <v>0</v>
       </c>
       <c r="P17" s="18">
-        <v>79000</v>
+        <v>19000</v>
       </c>
       <c r="Q17" s="18">
-        <v>-4973.13</v>
+        <v>-13831.24</v>
       </c>
       <c r="R17" s="18">
-        <v>531684.47</v>
+        <v>512085.77</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="0"/>
-        <v>19598.699999999953</v>
+        <v>8301.4100000000326</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="20">
-        <v>44022</v>
+        <v>43992</v>
       </c>
       <c r="C18" s="18">
-        <v>15400.55</v>
+        <v>71850.19</v>
       </c>
       <c r="D18" s="18">
-        <v>43205.869999999995</v>
+        <v>43092.05</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
@@ -9562,22 +9779,22 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <v>45825.829999999994</v>
+        <v>40713.46</v>
       </c>
       <c r="H18" s="18">
-        <v>154470</v>
+        <v>146205</v>
       </c>
       <c r="I18" s="18">
         <v>0</v>
       </c>
       <c r="J18" s="18">
-        <v>323165.74</v>
+        <v>63806.16</v>
       </c>
       <c r="K18" s="18">
-        <v>18896.05</v>
+        <v>45586.86</v>
       </c>
       <c r="L18" s="18">
-        <v>9633.7099999999991</v>
+        <v>46403.88</v>
       </c>
       <c r="M18" s="18">
         <v>0</v>
@@ -9589,28 +9806,28 @@
         <v>0</v>
       </c>
       <c r="P18" s="18">
-        <v>-41000</v>
+        <v>79000</v>
       </c>
       <c r="Q18" s="18">
-        <v>-784</v>
+        <v>-4973.13</v>
       </c>
       <c r="R18" s="18">
-        <v>568813.75</v>
+        <v>531684.47</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="0"/>
-        <v>37129.280000000028</v>
+        <v>19598.699999999953</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="20">
-        <v>44053</v>
+        <v>44022</v>
       </c>
       <c r="C19" s="18">
-        <v>16218.76</v>
+        <v>15400.55</v>
       </c>
       <c r="D19" s="18">
-        <v>41256.36</v>
+        <v>43205.869999999995</v>
       </c>
       <c r="E19" s="18">
         <v>0</v>
@@ -9619,22 +9836,22 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <v>0</v>
+        <v>45825.829999999994</v>
       </c>
       <c r="H19" s="18">
-        <v>226094</v>
+        <v>154470</v>
       </c>
       <c r="I19" s="18">
-        <v>16300</v>
+        <v>0</v>
       </c>
       <c r="J19" s="18">
-        <v>242196.59</v>
+        <v>323165.74</v>
       </c>
       <c r="K19" s="18">
-        <v>18424.78</v>
+        <v>18896.05</v>
       </c>
       <c r="L19" s="18">
-        <v>6346.39</v>
+        <v>9633.7099999999991</v>
       </c>
       <c r="M19" s="18">
         <v>0</v>
@@ -9646,28 +9863,28 @@
         <v>0</v>
       </c>
       <c r="P19" s="18">
-        <v>9000</v>
+        <v>-41000</v>
       </c>
       <c r="Q19" s="18">
-        <v>-9029.68</v>
+        <v>-784</v>
       </c>
       <c r="R19" s="18">
-        <v>566807.19999999995</v>
+        <v>568813.75</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="0"/>
-        <v>-2006.5500000000466</v>
+        <v>37129.280000000028</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
-        <v>44084</v>
+        <v>44053</v>
       </c>
       <c r="C20" s="18">
-        <v>44891.25</v>
+        <v>16218.76</v>
       </c>
       <c r="D20" s="18">
-        <v>41364.619999999995</v>
+        <v>41256.36</v>
       </c>
       <c r="E20" s="18">
         <v>0</v>
@@ -9676,22 +9893,22 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <v>50039.869999999995</v>
+        <v>0</v>
       </c>
       <c r="H20" s="18">
-        <v>247170</v>
+        <v>226094</v>
       </c>
       <c r="I20" s="18">
-        <v>36904</v>
+        <v>16300</v>
       </c>
       <c r="J20" s="18">
-        <v>135007.81</v>
+        <v>242196.59</v>
       </c>
       <c r="K20" s="18">
-        <v>17840.41</v>
+        <v>18424.78</v>
       </c>
       <c r="L20" s="18">
-        <v>8773.44</v>
+        <v>6346.39</v>
       </c>
       <c r="M20" s="18">
         <v>0</v>
@@ -9706,25 +9923,25 @@
         <v>9000</v>
       </c>
       <c r="Q20" s="18">
-        <v>-4096.97</v>
+        <v>-9029.68</v>
       </c>
       <c r="R20" s="18">
-        <v>586894.43000000005</v>
+        <v>566807.19999999995</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="0"/>
-        <v>20087.230000000098</v>
+        <v>-2006.5500000000466</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="20">
-        <v>44114</v>
+        <v>44084</v>
       </c>
       <c r="C21" s="18">
-        <v>34054.86</v>
+        <v>44891.25</v>
       </c>
       <c r="D21" s="18">
-        <v>41457.22</v>
+        <v>41364.619999999995</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
@@ -9733,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <v>60156.74</v>
+        <v>50039.869999999995</v>
       </c>
       <c r="H21" s="18">
-        <v>293475</v>
+        <v>247170</v>
       </c>
       <c r="I21" s="18">
-        <v>29715</v>
+        <v>36904</v>
       </c>
       <c r="J21" s="18">
-        <v>100258.99</v>
+        <v>135007.81</v>
       </c>
       <c r="K21" s="18">
-        <v>20248.740000000002</v>
+        <v>17840.41</v>
       </c>
       <c r="L21" s="18">
-        <v>10841.3</v>
+        <v>8773.44</v>
       </c>
       <c r="M21" s="18">
         <v>0</v>
@@ -9763,82 +9980,82 @@
         <v>9000</v>
       </c>
       <c r="Q21" s="18">
-        <v>-4322.1000000000004</v>
+        <v>-4096.97</v>
       </c>
       <c r="R21" s="18">
-        <v>594885.75000000012</v>
+        <v>586894.43000000005</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="0"/>
-        <v>7991.3200000000652</v>
+        <v>20087.230000000098</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="24">
-        <v>44145</v>
-      </c>
-      <c r="C22" s="25">
-        <v>35337.230000000003</v>
-      </c>
-      <c r="D22" s="25">
-        <v>41559.699999999997</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>60317.19</v>
-      </c>
-      <c r="H22" s="25">
-        <v>297345</v>
-      </c>
-      <c r="I22" s="25">
-        <v>28578</v>
-      </c>
-      <c r="J22" s="25">
-        <v>70370.83</v>
-      </c>
-      <c r="K22" s="25">
-        <v>13872.65</v>
-      </c>
-      <c r="L22" s="25">
-        <v>13993.56</v>
-      </c>
-      <c r="M22" s="25">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>7000</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>-8534.43</v>
-      </c>
-      <c r="R22" s="25">
-        <v>559839.73</v>
+      <c r="B22" s="20">
+        <v>44114</v>
+      </c>
+      <c r="C22" s="18">
+        <v>34054.86</v>
+      </c>
+      <c r="D22" s="18">
+        <v>41457.22</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>60156.74</v>
+      </c>
+      <c r="H22" s="18">
+        <v>293475</v>
+      </c>
+      <c r="I22" s="18">
+        <v>29715</v>
+      </c>
+      <c r="J22" s="18">
+        <v>100258.99</v>
+      </c>
+      <c r="K22" s="18">
+        <v>20248.740000000002</v>
+      </c>
+      <c r="L22" s="18">
+        <v>10841.3</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
+        <v>9000</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>-4322.1000000000004</v>
+      </c>
+      <c r="R22" s="18">
+        <v>594885.75000000012</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="0"/>
-        <v>-35046.020000000135</v>
+        <v>7991.3200000000652</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="24">
-        <v>44175</v>
+        <v>44145</v>
       </c>
       <c r="C23" s="25">
-        <v>43847.5</v>
+        <v>35337.230000000003</v>
       </c>
       <c r="D23" s="25">
-        <v>41653.199999999997</v>
+        <v>41559.699999999997</v>
       </c>
       <c r="E23" s="25">
         <v>0</v>
@@ -9847,22 +10064,22 @@
         <v>0</v>
       </c>
       <c r="G23" s="25">
-        <v>62461.24</v>
+        <v>60317.19</v>
       </c>
       <c r="H23" s="25">
-        <v>295410</v>
+        <v>297345</v>
       </c>
       <c r="I23" s="25">
-        <v>29190</v>
+        <v>28578</v>
       </c>
       <c r="J23" s="25">
-        <v>70634.78</v>
+        <v>70370.83</v>
       </c>
       <c r="K23" s="25">
-        <v>14484.76</v>
+        <v>13872.65</v>
       </c>
       <c r="L23" s="25">
-        <v>16744.060000000001</v>
+        <v>13993.56</v>
       </c>
       <c r="M23" s="25">
         <v>0</v>
@@ -9877,25 +10094,25 @@
         <v>7000</v>
       </c>
       <c r="Q23" s="25">
-        <v>-9077.7200000000012</v>
+        <v>-8534.43</v>
       </c>
       <c r="R23" s="25">
-        <v>572347.82000000007</v>
+        <v>559839.73</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="0"/>
-        <v>12508.090000000084</v>
+        <v>-35046.020000000135</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="24">
-        <v>44197</v>
+        <v>44175</v>
       </c>
       <c r="C24" s="25">
-        <v>123079.99</v>
+        <v>43847.5</v>
       </c>
       <c r="D24" s="25">
-        <v>0</v>
+        <v>41653.199999999997</v>
       </c>
       <c r="E24" s="25">
         <v>0</v>
@@ -9904,22 +10121,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="25">
-        <v>20758.309999999998</v>
+        <v>62461.24</v>
       </c>
       <c r="H24" s="25">
-        <v>288960</v>
+        <v>295410</v>
       </c>
       <c r="I24" s="25">
-        <v>28056</v>
+        <v>29190</v>
       </c>
       <c r="J24" s="25">
-        <v>70770.850000000006</v>
+        <v>70634.78</v>
       </c>
       <c r="K24" s="25">
-        <v>17104.71</v>
+        <v>14484.76</v>
       </c>
       <c r="L24" s="25">
-        <v>19021.39</v>
+        <v>16744.060000000001</v>
       </c>
       <c r="M24" s="25">
         <v>0</v>
@@ -9934,22 +10151,22 @@
         <v>7000</v>
       </c>
       <c r="Q24" s="25">
-        <v>-7039.3099999999977</v>
+        <v>-9077.7200000000012</v>
       </c>
       <c r="R24" s="25">
-        <v>567711.93999999994</v>
+        <v>572347.82000000007</v>
       </c>
       <c r="S24" s="19">
         <f t="shared" si="0"/>
-        <v>-4635.8800000001211</v>
+        <v>12508.090000000084</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="24">
-        <v>44206</v>
+        <v>44197</v>
       </c>
       <c r="C25" s="25">
-        <v>152408.67000000001</v>
+        <v>123079.99</v>
       </c>
       <c r="D25" s="25">
         <v>0</v>
@@ -9961,22 +10178,22 @@
         <v>0</v>
       </c>
       <c r="G25" s="25">
-        <v>10104.41</v>
+        <v>20758.309999999998</v>
       </c>
       <c r="H25" s="25">
         <v>288960</v>
       </c>
       <c r="I25" s="25">
-        <v>26442</v>
+        <v>28056</v>
       </c>
       <c r="J25" s="25">
-        <v>70792.67</v>
+        <v>70770.850000000006</v>
       </c>
       <c r="K25" s="25">
-        <v>17234.060000000001</v>
+        <v>17104.71</v>
       </c>
       <c r="L25" s="25">
-        <v>20365.349999999999</v>
+        <v>19021.39</v>
       </c>
       <c r="M25" s="25">
         <v>0</v>
@@ -9991,22 +10208,22 @@
         <v>7000</v>
       </c>
       <c r="Q25" s="25">
-        <v>-8061.9600000000064</v>
+        <v>-7039.3099999999977</v>
       </c>
       <c r="R25" s="25">
-        <v>585245.20000000007</v>
+        <v>567711.93999999994</v>
       </c>
       <c r="S25" s="19">
         <f t="shared" si="0"/>
-        <v>17533.260000000126</v>
+        <v>-4635.8800000001211</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="24">
-        <v>44234</v>
+        <v>44206</v>
       </c>
       <c r="C26" s="25">
-        <v>51871.81</v>
+        <v>152408.67000000001</v>
       </c>
       <c r="D26" s="25">
         <v>0</v>
@@ -10015,25 +10232,25 @@
         <v>0</v>
       </c>
       <c r="F26" s="25">
-        <v>30028.82</v>
+        <v>0</v>
       </c>
       <c r="G26" s="25">
-        <v>125885.42</v>
+        <v>10104.41</v>
       </c>
       <c r="H26" s="25">
-        <v>292830</v>
+        <v>288960</v>
       </c>
       <c r="I26" s="25">
-        <v>24702</v>
+        <v>26442</v>
       </c>
       <c r="J26" s="25">
-        <v>75697.289999999994</v>
+        <v>70792.67</v>
       </c>
       <c r="K26" s="25">
-        <v>16742.849999999999</v>
+        <v>17234.060000000001</v>
       </c>
       <c r="L26" s="25">
-        <v>21654.81</v>
+        <v>20365.349999999999</v>
       </c>
       <c r="M26" s="25">
         <v>0</v>
@@ -10048,67 +10265,124 @@
         <v>7000</v>
       </c>
       <c r="Q26" s="25">
-        <v>-2693.1299999999901</v>
+        <v>-8061.9600000000064</v>
       </c>
       <c r="R26" s="25">
-        <v>643719.87000000011</v>
+        <v>585245.20000000007</v>
       </c>
       <c r="S26" s="19">
         <f t="shared" si="0"/>
-        <v>58474.670000000042</v>
+        <v>17533.260000000126</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="26"/>
+      <c r="B27" s="24">
+        <v>44234</v>
+      </c>
+      <c r="C27" s="25">
+        <v>51871.81</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>30028.82</v>
+      </c>
+      <c r="G27" s="25">
+        <v>125885.42</v>
+      </c>
+      <c r="H27" s="25">
+        <v>292830</v>
+      </c>
+      <c r="I27" s="25">
+        <v>24702</v>
+      </c>
+      <c r="J27" s="25">
+        <v>75697.289999999994</v>
+      </c>
+      <c r="K27" s="25">
+        <v>16742.849999999999</v>
+      </c>
+      <c r="L27" s="25">
+        <v>21654.81</v>
+      </c>
+      <c r="M27" s="25">
+        <v>0</v>
+      </c>
+      <c r="N27" s="25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="25">
+        <v>7000</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>-2693.1299999999901</v>
+      </c>
+      <c r="R27" s="25">
+        <v>643719.87000000011</v>
+      </c>
+      <c r="S27" s="19">
+        <f t="shared" si="0"/>
+        <v>58474.670000000042</v>
+      </c>
     </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="S3:S5"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R3:R5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="S5:S9 S11:S28">
+  <conditionalFormatting sqref="S6:S10 S12:S29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -10122,7 +10396,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C28">
+  <conditionalFormatting sqref="C6:C29">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -10136,7 +10410,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D28">
+  <conditionalFormatting sqref="D6:D29">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -10150,7 +10424,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E28">
+  <conditionalFormatting sqref="E6:E29">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -10164,7 +10438,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F28">
+  <conditionalFormatting sqref="F6:F29">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -10178,7 +10452,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G28">
+  <conditionalFormatting sqref="G6:G29">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -10192,7 +10466,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H28">
+  <conditionalFormatting sqref="H6:H29">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -10206,7 +10480,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I28">
+  <conditionalFormatting sqref="I6:I29">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -10220,7 +10494,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J28">
+  <conditionalFormatting sqref="J6:J29">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -10234,7 +10508,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K28">
+  <conditionalFormatting sqref="K6:K29">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -10248,7 +10522,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L28">
+  <conditionalFormatting sqref="L6:L29">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -10262,7 +10536,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M28">
+  <conditionalFormatting sqref="M6:M29">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -10276,7 +10550,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N28">
+  <conditionalFormatting sqref="N6:N29">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -10290,7 +10564,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O28">
+  <conditionalFormatting sqref="O6:O29">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -10304,7 +10578,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P28">
+  <conditionalFormatting sqref="P6:P29">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -10318,7 +10592,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q28">
+  <conditionalFormatting sqref="Q6:Q29">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -10332,7 +10606,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R28">
+  <conditionalFormatting sqref="R6:R29">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -10364,7 +10638,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S5:S9 S11:S28</xm:sqref>
+          <xm:sqref>S6:S10 S12:S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8D5B3DD-0362-4B02-B824-E543E635778C}">
@@ -10377,7 +10651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C28</xm:sqref>
+          <xm:sqref>C6:C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9262FA2E-985C-4C9F-BC2C-5465EE4A39E5}">
@@ -10390,7 +10664,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D28</xm:sqref>
+          <xm:sqref>D6:D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366CB2EF-417B-4A2A-A0FC-74FA72D67D0E}">
@@ -10403,7 +10677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E5:E28</xm:sqref>
+          <xm:sqref>E6:E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C63BD7AD-4A7E-41B2-B926-F353DC8F8355}">
@@ -10416,7 +10690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F5:F28</xm:sqref>
+          <xm:sqref>F6:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF82F637-C529-4606-AB75-EFC562990FDD}">
@@ -10429,7 +10703,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G28</xm:sqref>
+          <xm:sqref>G6:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{108206A8-6F7A-4A41-865B-B89BF7A3213D}">
@@ -10442,7 +10716,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H5:H28</xm:sqref>
+          <xm:sqref>H6:H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5459F8EC-8409-4F32-91C3-C64502A2A1A7}">
@@ -10455,7 +10729,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I5:I28</xm:sqref>
+          <xm:sqref>I6:I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA3F5533-E5A1-45C8-BEBA-D23596F0B1FB}">
@@ -10468,7 +10742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J5:J28</xm:sqref>
+          <xm:sqref>J6:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D9E7CCB-26C7-49B5-B11C-54E3DB3F3F38}">
@@ -10481,7 +10755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K5:K28</xm:sqref>
+          <xm:sqref>K6:K29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2784457A-ECE6-4F72-92D6-DDC0B0EC0618}">
@@ -10494,7 +10768,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L5:L28</xm:sqref>
+          <xm:sqref>L6:L29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7CC31536-6AA6-473B-9F0A-A55BD9B8A311}">
@@ -10507,7 +10781,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M5:M28</xm:sqref>
+          <xm:sqref>M6:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9ED6CAA1-F06F-4B76-A494-32CFD48F70A5}">
@@ -10520,7 +10794,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N5:N28</xm:sqref>
+          <xm:sqref>N6:N29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79E86C09-D459-46FB-8ACE-D5B165E833BF}">
@@ -10533,7 +10807,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O5:O28</xm:sqref>
+          <xm:sqref>O6:O29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7843817F-83BE-406B-8B5E-06FD2FA0F2BE}">
@@ -10546,7 +10820,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P5:P28</xm:sqref>
+          <xm:sqref>P6:P29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{89879D83-71C1-4BD2-8AD3-870641914BA9}">
@@ -10559,7 +10833,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q5:Q28</xm:sqref>
+          <xm:sqref>Q6:Q29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83AB5F10-FE33-4604-A317-D0B3AB265532}">
@@ -10572,7 +10846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R5:R28</xm:sqref>
+          <xm:sqref>R6:R29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896051A-4FDD-47CC-B58E-A08B314CCC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF80740-90A2-47CB-841C-1247CA81CB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,43 +39,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{EC98A9B1-CF70-46E6-ABEA-1481FC8103D2}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">:
-</t>
+          <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>邢健豪</t>
+          <t xml:space="preserve">
+刑建豪</t>
         </r>
       </text>
     </comment>
@@ -259,12 +246,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="S27" authorId="1" shapeId="0" xr:uid="{60F1407B-A9D2-4247-B020-ACFA84F30928}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一月份工资 18889.81  H2绩效+年终奖  36819.3</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>余额宝</t>
   </si>
@@ -373,14 +386,6 @@
     <t>提升</t>
   </si>
   <si>
-    <t>支付宝定期
--中期</t>
-  </si>
-  <si>
-    <t>支付宝定期
--短期</t>
-  </si>
-  <si>
     <t>中证300</t>
   </si>
   <si>
@@ -447,10 +452,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2021年02月07日更新 顺道设定信用卡还款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>招商信用卡</t>
     </r>
@@ -499,16 +500,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝定期
--长期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝定期
--定额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>证券现金及可转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -524,6 +515,26 @@
     <t>招商理财</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2021年03月10日更新 顺道设定信用卡还款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝定额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝长期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝中期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝短期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -534,7 +545,7 @@
     <numFmt numFmtId="177" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -623,6 +634,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -644,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -813,24 +837,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -865,9 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -879,17 +887,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,6 +898,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,22 +1644,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>51871.81</c:v>
+                  <c:v>38081.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75697.289999999994</c:v>
+                  <c:v>85586.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155914.23999999999</c:v>
+                  <c:v>190460.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38397.660000000003</c:v>
+                  <c:v>32305.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317532</c:v>
+                  <c:v>327162</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5482,6 +5489,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9011B493-3C53-44A8-860C-8057E7445A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="10163175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A837751C-40BE-49B4-B854-5A9888D9248C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="10163175"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8045,6 +8160,222 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9553575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2066" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1B0AC0-4D96-4446-A3B7-AFD85B22C6F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9477375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2067" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E539AF67-37C5-414A-8902-17A506E97F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9477375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2068" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB96FFE-6D6D-43EA-AF1D-3063A7649377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9477375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2069" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6554F988-4A0C-460B-8258-E1F868C2C1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9477375"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8372,7 +8703,7 @@
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8392,10 +8723,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>51871.81</v>
+        <v>38081.15</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -8406,28 +8737,28 @@
         <v>2</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8436,13 +8767,13 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>39178.680000000008</v>
+        <v>23843.190000000002</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(H2:K2)</f>
@@ -8454,19 +8785,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>51871.81</v>
+        <v>38081.15</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>75697.289999999994</v>
+        <v>85586.78</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>155914.23999999999</v>
+        <v>190460.03</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>38397.660000000003</v>
+        <v>32305.22</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -8474,7 +8805,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>317532</v>
+        <v>327162</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -8491,14 +8822,14 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>12693.12999999999</v>
+        <v>14237.96</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>155914.23999999999</v>
+        <v>190460.03</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(H3:Q3)</f>
@@ -8511,24 +8842,24 @@
     </row>
     <row r="4" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-49674.66</f>
-        <v>325.33999999999651</v>
+        <f>50000-49041.85</f>
+        <v>958.15000000000146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:Q4)</f>
-        <v>30028.82</v>
+        <v>50102.74</v>
       </c>
       <c r="H4" s="4">
-        <v>30028.82</v>
+        <v>50102.74</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -8536,25 +8867,23 @@
     </row>
     <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
-        <f>80000-77632.21</f>
-        <v>2367.7899999999936</v>
+        <f>80000-76720.19</f>
+        <v>3279.8099999999977</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>125885.42</v>
+        <v>140357.29</v>
       </c>
       <c r="H5" s="4">
-        <v>105863.5</v>
-      </c>
-      <c r="I5" s="4">
-        <v>20021.919999999998</v>
-      </c>
+        <v>140357.29</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8589,11 +8918,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
-        <v>292830</v>
+        <v>299925</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.54</f>
-        <v>292830</v>
+        <f>(59000-5500+11000)*4.65</f>
+        <v>299925</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -8608,20 +8937,20 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>393229.29</v>
+        <v>412748.78</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>24702</v>
+        <v>27237</v>
       </c>
       <c r="H8" s="4">
-        <v>17292</v>
+        <v>18348</v>
       </c>
       <c r="I8" s="4">
-        <v>7410</v>
+        <v>8889</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -8638,10 +8967,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>75697.289999999994</v>
+        <v>85586.78</v>
       </c>
       <c r="H9" s="4">
-        <v>75697.289999999994</v>
+        <v>85586.78</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -8662,10 +8991,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>16742.849999999999</v>
+        <v>9780.42</v>
       </c>
       <c r="H10" s="4">
-        <v>16742.849999999999</v>
+        <v>9780.42</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -8680,17 +9009,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>38397.660000000003</v>
+        <v>32305.22</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>21654.81</v>
+        <v>22524.799999999999</v>
       </c>
       <c r="H11" s="4">
-        <v>21654.81</v>
+        <v>22524.799999999999</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -8753,7 +9082,7 @@
     </row>
     <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>5500</v>
@@ -8802,7 +9131,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>643719.87</v>
+        <v>676357.2200000002</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -8812,13 +9141,13 @@
     </row>
     <row r="18" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>11000</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>51</v>
+      <c r="G18" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -8840,13 +9169,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:S29"/>
+  <dimension ref="B1:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8870,16 +9199,16 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>51871.81</v>
+        <v>38081.15</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -8891,31 +9220,31 @@
       </c>
       <c r="F2" s="12">
         <f>配置计划!G4</f>
-        <v>30028.82</v>
+        <v>50102.74</v>
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>125885.42</v>
+        <v>140357.29</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>292830</v>
+        <v>299925</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>24702</v>
+        <v>27237</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>75697.289999999994</v>
+        <v>85586.78</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>16742.849999999999</v>
+        <v>9780.42</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>21654.81</v>
+        <v>22524.799999999999</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -8935,17 +9264,17 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-2693.1299999999901</v>
+        <v>-4237.9599999999991</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>643719.87000000011</v>
+        <v>676357.22000000009</v>
       </c>
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="31" t="s">
@@ -8977,1400 +9306,1533 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
-      <c r="C4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="M4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="O4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="28" t="s">
+      <c r="P4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="30"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="15" t="s">
+      <c r="P5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="R5" s="31"/>
       <c r="S5" s="30"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>43656</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>25096.03</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>41706.559999999998</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>20000</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>10016.9</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>39032</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>5488</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>5057.91</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>14938.45</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>12322.5</v>
       </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
         <v>1729.67</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <v>20000</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <v>11000</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <v>-2932.57</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="17">
         <v>203455.5</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>43689</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>27148.47</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>41842.92</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>20338.490000000002</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>10045.74</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
         <v>47558</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>8532</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>12.96</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>18132.89</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>17031.580000000002</v>
       </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
         <v>1060</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <v>20000</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>9000</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>-1980</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <v>218723.05</v>
       </c>
-      <c r="S7" s="19">
-        <f t="shared" ref="S7:S27" si="0">R7-R6</f>
+      <c r="S7" s="18">
+        <f t="shared" ref="S7:S28" si="0">R7-R6</f>
         <v>15267.549999999988</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>43719</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>28302.28</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>41966.9</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>20381.89</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>10073.59</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
         <v>59996</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>9372</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>1202.18</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>21584.31</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>22174.17</v>
       </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
         <v>20000</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <v>9000</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>-15450.21</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <v>228603.11</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <f t="shared" si="0"/>
         <v>9880.0599999999977</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>43752</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>17637</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>42105.55</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>20429.63</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>10100.44</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>1001.75</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>60420</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>8936</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>1204.3499999999999</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>23797.48</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>23850.55</v>
       </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18">
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
         <v>20000</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <v>9000</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>-5202.49</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="17">
         <v>233280.26</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="18">
         <f t="shared" si="0"/>
         <v>4677.1500000000233</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>43780</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>16905.240000000002</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>42223.91</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>20470.13</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>10122.31</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>1001.8</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>59360</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>8448</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>6493.34</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <v>26413.61</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>25749.3</v>
       </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
         <v>110.03</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <v>20000</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <v>9000</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>-1905.04</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="17">
         <v>244392.63</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="18">
         <f t="shared" si="0"/>
         <v>11112.369999999995</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>43809</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>76153</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>42345.71</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>20512.080000000002</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>10151.15</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>30020.49</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>128780</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>8776</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>2875.43</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>28786.12</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>30464.42</v>
       </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
         <v>1000.98</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <v>20000</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <v>9000</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <v>-278.56</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="17">
         <v>408586.82</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="18">
         <f t="shared" si="0"/>
         <v>164194.19</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>43840</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>19478.28</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>42476.51</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>10000</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
         <v>50160.04</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>132540</v>
       </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
         <v>9006.0300000000007</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>32264.48</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>36093.379999999997</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>61200</v>
       </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-      <c r="O12" s="18">
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
         <v>20000</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <v>20000</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>-10254.36</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <v>422964.36</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="18">
         <f t="shared" si="0"/>
         <v>14377.539999999979</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>43854</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>29292.67</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>42530.26</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>10000</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>50230.31</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>128545</v>
       </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
         <v>42364.6</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>31679.71</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>36488.870000000003</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <v>61380</v>
       </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18">
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
         <v>20000</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="17">
         <v>9000</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>-20104.59</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="17">
         <v>441406.83</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="18">
         <f t="shared" si="0"/>
         <v>18442.47000000003</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>43871</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>40368.199999999997</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>42602.97</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>10000</v>
       </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>51331.81</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>122905</v>
       </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
         <v>42654.07</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="17">
         <v>31793.200000000001</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <v>37331.58</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="17">
         <v>61740</v>
       </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
         <v>20000</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="17">
         <v>9000</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="17">
         <v>-16003.23</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="17">
         <v>453723.6</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="18">
         <f t="shared" si="0"/>
         <v>12316.76999999996</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>43900</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>25713.95</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>42720.71</v>
       </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>50509.29</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>125724.99999999999</v>
       </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
         <v>53287.96</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="17">
         <v>35447.480000000003</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="17">
         <v>37299.980000000003</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="17">
         <v>72800</v>
       </c>
-      <c r="N15" s="18">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18">
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
         <v>20000</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="17">
         <v>19000</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="17">
         <v>-680.28</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="17">
         <v>481824.08999999997</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="18">
         <f t="shared" si="0"/>
         <v>28100.489999999991</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>43931</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>114197.53</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>42851.53</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <v>40487.360000000001</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>147630</v>
       </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
         <v>63447.3</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="17">
         <v>35801.040000000001</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="17">
         <v>38419.51</v>
       </c>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="N16" s="18">
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
         <v>1950.09</v>
       </c>
-      <c r="O16" s="18">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
         <v>19000</v>
       </c>
-      <c r="Q16" s="18">
-        <v>0</v>
-      </c>
-      <c r="R16" s="18">
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
         <v>503784.36</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="18">
         <f t="shared" si="0"/>
         <v>21960.270000000019</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>43961</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>127821.32</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>42963.5</v>
       </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>40592.67</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>146490</v>
       </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
         <v>63771.9</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="17">
         <v>41053.19</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>42212.18</v>
       </c>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17" s="18">
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
         <v>2012.25</v>
       </c>
-      <c r="O17" s="18">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
+      <c r="O17" s="17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
         <v>19000</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="17">
         <v>-13831.24</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="17">
         <v>512085.77</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="18">
         <f t="shared" si="0"/>
         <v>8301.4100000000326</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>43992</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>71850.19</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>43092.05</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
         <v>40713.46</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>146205</v>
       </c>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
         <v>63806.16</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="17">
         <v>45586.86</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="17">
         <v>46403.88</v>
       </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
         <v>79000</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="17">
         <v>-4973.13</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="17">
         <v>531684.47</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="18">
         <f t="shared" si="0"/>
         <v>19598.699999999953</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>44022</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>15400.55</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>43205.869999999995</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
         <v>45825.829999999994</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>154470</v>
       </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
         <v>323165.74</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="17">
         <v>18896.05</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="17">
         <v>9633.7099999999991</v>
       </c>
-      <c r="M19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
         <v>-41000</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="17">
         <v>-784</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="17">
         <v>568813.75</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="18">
         <f t="shared" si="0"/>
         <v>37129.280000000028</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>44053</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>16218.76</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>41256.36</v>
       </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
         <v>226094</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>16300</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <v>242196.59</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <v>18424.78</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="17">
         <v>6346.39</v>
       </c>
-      <c r="M20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
         <v>9000</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="17">
         <v>-9029.68</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="17">
         <v>566807.19999999995</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="18">
         <f t="shared" si="0"/>
         <v>-2006.5500000000466</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>44084</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>44891.25</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>41364.619999999995</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
         <v>50039.869999999995</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>247170</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>36904</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <v>135007.81</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <v>17840.41</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="17">
         <v>8773.44</v>
       </c>
-      <c r="M21" s="18">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18">
-        <v>0</v>
-      </c>
-      <c r="O21" s="18">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
         <v>9000</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="17">
         <v>-4096.97</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="17">
         <v>586894.43000000005</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="18">
         <f t="shared" si="0"/>
         <v>20087.230000000098</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>44114</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>34054.86</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>41457.22</v>
       </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
         <v>60156.74</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>293475</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>29715</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="17">
         <v>100258.99</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="17">
         <v>20248.740000000002</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="17">
         <v>10841.3</v>
       </c>
-      <c r="M22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18">
-        <v>0</v>
-      </c>
-      <c r="O22" s="18">
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
         <v>9000</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="17">
         <v>-4322.1000000000004</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="17">
         <v>594885.75000000012</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="18">
         <f t="shared" si="0"/>
         <v>7991.3200000000652</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>44145</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>35337.230000000003</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>41559.699999999997</v>
       </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
         <v>60317.19</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <v>297345</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <v>28578</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <v>70370.83</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <v>13872.65</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="24">
         <v>13993.56</v>
       </c>
-      <c r="M23" s="25">
-        <v>0</v>
-      </c>
-      <c r="N23" s="25">
-        <v>0</v>
-      </c>
-      <c r="O23" s="25">
-        <v>0</v>
-      </c>
-      <c r="P23" s="25">
+      <c r="M23" s="24">
+        <v>0</v>
+      </c>
+      <c r="N23" s="24">
+        <v>0</v>
+      </c>
+      <c r="O23" s="24">
+        <v>0</v>
+      </c>
+      <c r="P23" s="24">
         <v>7000</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="24">
         <v>-8534.43</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23" s="24">
         <v>559839.73</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="18">
         <f t="shared" si="0"/>
         <v>-35046.020000000135</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>44175</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>43847.5</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>41653.199999999997</v>
       </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
         <v>62461.24</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <v>295410</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <v>29190</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <v>70634.78</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="24">
         <v>14484.76</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="24">
         <v>16744.060000000001</v>
       </c>
-      <c r="M24" s="25">
-        <v>0</v>
-      </c>
-      <c r="N24" s="25">
-        <v>0</v>
-      </c>
-      <c r="O24" s="25">
-        <v>0</v>
-      </c>
-      <c r="P24" s="25">
+      <c r="M24" s="24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="24">
         <v>7000</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="24">
         <v>-9077.7200000000012</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="24">
         <v>572347.82000000007</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="18">
         <f t="shared" si="0"/>
         <v>12508.090000000084</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>44197</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>123079.99</v>
       </c>
-      <c r="D25" s="25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
         <v>20758.309999999998</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>288960</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <v>28056</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <v>70770.850000000006</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="24">
         <v>17104.71</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="24">
         <v>19021.39</v>
       </c>
-      <c r="M25" s="25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="25">
+      <c r="M25" s="24">
+        <v>0</v>
+      </c>
+      <c r="N25" s="24">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24">
         <v>7000</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="24">
         <v>-7039.3099999999977</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="24">
         <v>567711.93999999994</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="18">
         <f t="shared" si="0"/>
         <v>-4635.8800000001211</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>44206</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>152408.67000000001</v>
       </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
         <v>10104.41</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="24">
         <v>288960</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <v>26442</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <v>70792.67</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="24">
         <v>17234.060000000001</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="24">
         <v>20365.349999999999</v>
       </c>
-      <c r="M26" s="25">
-        <v>0</v>
-      </c>
-      <c r="N26" s="25">
-        <v>0</v>
-      </c>
-      <c r="O26" s="25">
-        <v>0</v>
-      </c>
-      <c r="P26" s="25">
+      <c r="M26" s="24">
+        <v>0</v>
+      </c>
+      <c r="N26" s="24">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="P26" s="24">
         <v>7000</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="24">
         <v>-8061.9600000000064</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R26" s="24">
         <v>585245.20000000007</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="18">
         <f t="shared" si="0"/>
         <v>17533.260000000126</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>44234</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>51871.81</v>
       </c>
-      <c r="D27" s="25">
-        <v>0</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24">
         <v>30028.82</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>125885.42</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <v>292830</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <v>24702</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="24">
         <v>75697.289999999994</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="24">
         <v>16742.849999999999</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="24">
         <v>21654.81</v>
       </c>
-      <c r="M27" s="25">
-        <v>0</v>
-      </c>
-      <c r="N27" s="25">
-        <v>0</v>
-      </c>
-      <c r="O27" s="25">
-        <v>0</v>
-      </c>
-      <c r="P27" s="25">
+      <c r="M27" s="24">
+        <v>0</v>
+      </c>
+      <c r="N27" s="24">
+        <v>0</v>
+      </c>
+      <c r="O27" s="24">
+        <v>0</v>
+      </c>
+      <c r="P27" s="24">
         <v>7000</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="24">
         <v>-2693.1299999999901</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R27" s="24">
         <v>643719.87000000011</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="18">
         <f t="shared" si="0"/>
         <v>58474.670000000042</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="26"/>
+      <c r="B28" s="23">
+        <v>44265</v>
+      </c>
+      <c r="C28" s="24">
+        <v>38081.15</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>50102.74</v>
+      </c>
+      <c r="G28" s="24">
+        <v>140357.29</v>
+      </c>
+      <c r="H28" s="24">
+        <v>299925</v>
+      </c>
+      <c r="I28" s="24">
+        <v>27237</v>
+      </c>
+      <c r="J28" s="24">
+        <v>85586.78</v>
+      </c>
+      <c r="K28" s="24">
+        <v>9780.42</v>
+      </c>
+      <c r="L28" s="24">
+        <v>22524.799999999999</v>
+      </c>
+      <c r="M28" s="24">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+      <c r="P28" s="24">
+        <v>7000</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>-4237.9599999999991</v>
+      </c>
+      <c r="R28" s="24">
+        <v>676357.22000000009</v>
+      </c>
+      <c r="S28" s="18">
+        <f t="shared" si="0"/>
+        <v>32637.349999999977</v>
+      </c>
     </row>
-    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="23"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10382,7 +10844,7 @@
     <mergeCell ref="R3:R5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="S6:S10 S12:S29">
+  <conditionalFormatting sqref="S6:S10 S12:S34">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -10396,7 +10858,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C29">
+  <conditionalFormatting sqref="C6:C34">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -10410,7 +10872,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D29">
+  <conditionalFormatting sqref="D6:D34">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -10424,7 +10886,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E29">
+  <conditionalFormatting sqref="E6:E34">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -10438,7 +10900,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F29">
+  <conditionalFormatting sqref="F6:F34">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -10452,7 +10914,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G29">
+  <conditionalFormatting sqref="G6:G34">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -10466,7 +10928,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H29">
+  <conditionalFormatting sqref="H6:H34">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -10480,7 +10942,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I29">
+  <conditionalFormatting sqref="I6:I34">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -10494,7 +10956,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J29">
+  <conditionalFormatting sqref="J6:J34">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -10508,7 +10970,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K29">
+  <conditionalFormatting sqref="K6:K34">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -10522,7 +10984,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L29">
+  <conditionalFormatting sqref="L6:L34">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -10536,7 +10998,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M29">
+  <conditionalFormatting sqref="M6:M34">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -10550,7 +11012,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N29">
+  <conditionalFormatting sqref="N6:N34">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -10564,7 +11026,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O29">
+  <conditionalFormatting sqref="O6:O34">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -10578,7 +11040,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P29">
+  <conditionalFormatting sqref="P6:P34">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -10592,7 +11054,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q29">
+  <conditionalFormatting sqref="Q6:Q34">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -10606,7 +11068,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R29">
+  <conditionalFormatting sqref="R6:R34">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -10638,7 +11100,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S6:S10 S12:S29</xm:sqref>
+          <xm:sqref>S6:S10 S12:S34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8D5B3DD-0362-4B02-B824-E543E635778C}">
@@ -10651,7 +11113,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C29</xm:sqref>
+          <xm:sqref>C6:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9262FA2E-985C-4C9F-BC2C-5465EE4A39E5}">
@@ -10664,7 +11126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D29</xm:sqref>
+          <xm:sqref>D6:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366CB2EF-417B-4A2A-A0FC-74FA72D67D0E}">
@@ -10677,7 +11139,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E6:E29</xm:sqref>
+          <xm:sqref>E6:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C63BD7AD-4A7E-41B2-B926-F353DC8F8355}">
@@ -10690,7 +11152,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:F29</xm:sqref>
+          <xm:sqref>F6:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF82F637-C529-4606-AB75-EFC562990FDD}">
@@ -10703,7 +11165,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G29</xm:sqref>
+          <xm:sqref>G6:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{108206A8-6F7A-4A41-865B-B89BF7A3213D}">
@@ -10716,7 +11178,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:H29</xm:sqref>
+          <xm:sqref>H6:H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5459F8EC-8409-4F32-91C3-C64502A2A1A7}">
@@ -10729,7 +11191,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I6:I29</xm:sqref>
+          <xm:sqref>I6:I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA3F5533-E5A1-45C8-BEBA-D23596F0B1FB}">
@@ -10742,7 +11204,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J6:J29</xm:sqref>
+          <xm:sqref>J6:J34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5D9E7CCB-26C7-49B5-B11C-54E3DB3F3F38}">
@@ -10755,7 +11217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K6:K29</xm:sqref>
+          <xm:sqref>K6:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2784457A-ECE6-4F72-92D6-DDC0B0EC0618}">
@@ -10768,7 +11230,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L6:L29</xm:sqref>
+          <xm:sqref>L6:L34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7CC31536-6AA6-473B-9F0A-A55BD9B8A311}">
@@ -10781,7 +11243,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M6:M29</xm:sqref>
+          <xm:sqref>M6:M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9ED6CAA1-F06F-4B76-A494-32CFD48F70A5}">
@@ -10794,7 +11256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N6:N29</xm:sqref>
+          <xm:sqref>N6:N34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79E86C09-D459-46FB-8ACE-D5B165E833BF}">
@@ -10807,7 +11269,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O6:O29</xm:sqref>
+          <xm:sqref>O6:O34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7843817F-83BE-406B-8B5E-06FD2FA0F2BE}">
@@ -10815,12 +11277,12 @@
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:negativeBorderColor rgb="FF00B050"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P6:P29</xm:sqref>
+          <xm:sqref>P6:P34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{89879D83-71C1-4BD2-8AD3-870641914BA9}">
@@ -10833,7 +11295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q6:Q29</xm:sqref>
+          <xm:sqref>Q6:Q34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83AB5F10-FE33-4604-A317-D0B3AB265532}">
@@ -10846,7 +11308,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R6:R29</xm:sqref>
+          <xm:sqref>R6:R34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF80740-90A2-47CB-841C-1247CA81CB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224644D-39A9-42E3-826E-5EF499C8B0D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>余额宝</t>
   </si>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2021年03月10日更新 顺道设定信用卡还款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝定额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -533,6 +529,14 @@
   </si>
   <si>
     <t>支付宝短期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年05月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1644,28 +1648,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>38081.15</c:v>
+                  <c:v>23581.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85586.78</c:v>
+                  <c:v>56552.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190460.03</c:v>
+                  <c:v>225016.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32305.22</c:v>
+                  <c:v>39553.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>327162</c:v>
+                  <c:v>345405</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7000</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8376,6 +8380,438 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9239250" cy="9477375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2070" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5373C38-E5F2-483D-AEBE-4B6883707335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2071" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BD962E-72FE-48F9-9D45-FD6A364AFD5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2072" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DAD9B1-359C-434A-9630-01D34182C861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2073" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB2CC33-7A01-42A1-BEA6-A1F98CE24DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2074" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76899F79-422B-44C6-8F6B-99C8A4FDEA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2075" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E71D47-3BC4-4309-B7F4-C4FBE9B88D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2076" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343E29A8-65D3-4AAC-A08F-ED770B30E37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2077" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2C3147-015D-45E1-86B8-F6B0B2119C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8702,8 +9138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8723,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>38081.15</v>
+        <v>23581.599999999999</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
@@ -8767,7 +9203,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>23843.190000000002</v>
+        <v>11372.039999999994</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -8785,19 +9221,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>38081.15</v>
+        <v>23581.599999999999</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>85586.78</v>
+        <v>56552.9</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>190460.03</v>
+        <v>225016.94</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>32305.22</v>
+        <v>39553.32</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -8805,7 +9241,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>327162</v>
+        <v>345405</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -8813,7 +9249,7 @@
       </c>
       <c r="S2" s="2">
         <f>E15</f>
-        <v>7000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8822,20 +9258,22 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>14237.96</v>
+        <v>12209.560000000005</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>190460.03</v>
+        <v>225016.94</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(H3:Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>1000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1000</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -8845,8 +9283,8 @@
         <v>52</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-49041.85</f>
-        <v>958.15000000000146</v>
+        <f>50000-49626.1</f>
+        <v>373.90000000000146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -8856,10 +9294,10 @@
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:Q4)</f>
-        <v>50102.74</v>
+        <v>50405.14</v>
       </c>
       <c r="H4" s="4">
-        <v>50102.74</v>
+        <v>50405.14</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -8870,18 +9308,18 @@
         <v>53</v>
       </c>
       <c r="B5" s="5">
-        <f>80000-76720.19</f>
-        <v>3279.8099999999977</v>
+        <f>100000-98164.34</f>
+        <v>1835.6600000000035</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>140357.29</v>
+        <v>173611.8</v>
       </c>
       <c r="H5" s="4">
-        <v>140357.29</v>
+        <v>173611.8</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -8918,11 +9356,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
-        <v>299925</v>
+        <v>318630</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.65</f>
-        <v>299925</v>
+        <f>(59000-5500+11000)*4.94</f>
+        <v>318630</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -8937,20 +9375,20 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>412748.78</v>
+        <v>401957.9</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>27237</v>
+        <v>26775</v>
       </c>
       <c r="H8" s="4">
-        <v>18348</v>
+        <v>18216</v>
       </c>
       <c r="I8" s="4">
-        <v>8889</v>
+        <v>8559</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -8967,10 +9405,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>85586.78</v>
+        <v>56552.9</v>
       </c>
       <c r="H9" s="4">
-        <v>85586.78</v>
+        <v>56552.9</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -8991,10 +9429,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>9780.42</v>
+        <v>10231.620000000001</v>
       </c>
       <c r="H10" s="4">
-        <v>9780.42</v>
+        <v>10231.620000000001</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9009,17 +9447,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>32305.22</v>
+        <v>39553.32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>22524.799999999999</v>
+        <v>29321.7</v>
       </c>
       <c r="H11" s="4">
-        <v>22524.799999999999</v>
+        <v>29321.7</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9089,7 +9527,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>7000</v>
+        <v>57000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -9110,12 +9548,14 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:Q16)</f>
-        <v>7000</v>
+        <v>57000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>50000</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -9131,7 +9571,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>676357.2200000002</v>
+        <v>744900.19999999984</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -9171,11 +9611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9208,7 +9648,7 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>38081.15</v>
+        <v>23581.599999999999</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -9216,35 +9656,35 @@
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="12">
         <f>配置计划!G4</f>
-        <v>50102.74</v>
+        <v>50405.14</v>
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>140357.29</v>
+        <v>173611.8</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>299925</v>
+        <v>318630</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>27237</v>
+        <v>26775</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>85586.78</v>
+        <v>56552.9</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>9780.42</v>
+        <v>10231.620000000001</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>22524.799999999999</v>
+        <v>29321.7</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -9260,15 +9700,15 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>7000</v>
+        <v>57000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-4237.9599999999991</v>
+        <v>-2209.5600000000049</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>676357.22000000009</v>
+        <v>744900.2</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -9312,16 +9752,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>10</v>
@@ -9364,7 +9804,9 @@
         <v>0</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="15" t="s">
         <v>60</v>
       </c>
@@ -9513,7 +9955,7 @@
         <v>218723.05</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" ref="S7:S28" si="0">R7-R6</f>
+        <f t="shared" ref="S7:S30" si="0">R7-R6</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -10715,44 +11157,118 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="18"/>
+      <c r="B29" s="23">
+        <v>44296</v>
+      </c>
+      <c r="C29" s="24">
+        <v>48306.59</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="24">
+        <v>50271.85</v>
+      </c>
+      <c r="G29" s="24">
+        <v>140468.15</v>
+      </c>
+      <c r="H29" s="24">
+        <v>318630</v>
+      </c>
+      <c r="I29" s="24">
+        <v>27069</v>
+      </c>
+      <c r="J29" s="24">
+        <v>35668.11</v>
+      </c>
+      <c r="K29" s="24">
+        <v>10125.709999999999</v>
+      </c>
+      <c r="L29" s="24">
+        <v>26353.98</v>
+      </c>
+      <c r="M29" s="24">
+        <v>0</v>
+      </c>
+      <c r="N29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24">
+        <v>57000</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>-2844.179999999993</v>
+      </c>
+      <c r="R29" s="24">
+        <v>712049.21</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" si="0"/>
+        <v>35691.989999999874</v>
+      </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="18"/>
+      <c r="B30" s="23">
+        <v>44326</v>
+      </c>
+      <c r="C30" s="17">
+        <v>23581.599999999999</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="17">
+        <v>50405.14</v>
+      </c>
+      <c r="G30" s="17">
+        <v>173611.8</v>
+      </c>
+      <c r="H30" s="17">
+        <v>318630</v>
+      </c>
+      <c r="I30" s="17">
+        <v>26775</v>
+      </c>
+      <c r="J30" s="17">
+        <v>56552.9</v>
+      </c>
+      <c r="K30" s="17">
+        <v>10231.620000000001</v>
+      </c>
+      <c r="L30" s="17">
+        <v>29321.7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17">
+        <v>57000</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>-2209.5600000000049</v>
+      </c>
+      <c r="R30" s="17">
+        <v>744900.2</v>
+      </c>
+      <c r="S30" s="18">
+        <f t="shared" si="0"/>
+        <v>32850.989999999991</v>
+      </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
@@ -10845,7 +11361,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="S6:S10 S12:S34">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10859,7 +11375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C34">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10873,7 +11389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D34">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10887,7 +11403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E34">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10901,7 +11417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F34">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10915,7 +11431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G34">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10929,7 +11445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H34">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10943,7 +11459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I34">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10957,7 +11473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J34">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10971,7 +11487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K34">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10985,7 +11501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L34">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10999,7 +11515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M34">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11013,7 +11529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N34">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11027,7 +11543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O34">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11041,7 +11557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P34">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11055,7 +11571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q34">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11069,7 +11585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R34">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224644D-39A9-42E3-826E-5EF499C8B0D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA89FA-F668-4001-AB4A-809B2594A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2021年05月10日更新 顺道设定信用卡还款</t>
+    <t>2021年06月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1648,22 +1648,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23581.599999999999</c:v>
+                  <c:v>39996.520000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56552.9</c:v>
+                  <c:v>67058.320000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225016.94</c:v>
+                  <c:v>225559.78999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39553.32</c:v>
+                  <c:v>43395.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>345405</c:v>
+                  <c:v>332778</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8801,6 +8801,222 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2C3147-015D-45E1-86B8-F6B0B2119C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2078" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84B501B-DA52-4FFB-A5DC-E26D660F56DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2079" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9C40B4-C2B8-47AD-AA9D-C452A80AA698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2080" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFDC2A2-82C1-4C45-A789-5B423E684F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2081" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FB48F3-CC6F-414A-A43B-8C4288E89AE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9138,8 +9354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9159,7 +9375,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>23581.599999999999</v>
+        <f>22723.36+17273.16</f>
+        <v>39996.520000000004</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>67</v>
@@ -9203,7 +9420,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>11372.039999999994</v>
+        <v>25107.80000000001</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -9221,19 +9438,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>23581.599999999999</v>
+        <v>39996.520000000004</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>56552.9</v>
+        <v>67058.320000000007</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>225016.94</v>
+        <v>225559.78999999998</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>39553.32</v>
+        <v>43395.29</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -9241,7 +9458,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>345405</v>
+        <v>332778</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -9258,11 +9475,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>12209.560000000005</v>
+        <v>14888.719999999994</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>225016.94</v>
+        <v>225559.78999999998</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>57</v>
@@ -9283,8 +9500,8 @@
         <v>52</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-49626.1</f>
-        <v>373.90000000000146</v>
+        <f>50000-48017.26</f>
+        <v>1982.739999999998</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -9294,10 +9511,10 @@
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:Q4)</f>
-        <v>50405.14</v>
+        <v>50545.75</v>
       </c>
       <c r="H4" s="4">
-        <v>50405.14</v>
+        <v>50545.75</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -9308,18 +9525,19 @@
         <v>53</v>
       </c>
       <c r="B5" s="5">
-        <f>100000-98164.34</f>
-        <v>1835.6600000000035</v>
+        <f>100000-97094.02</f>
+        <v>2905.9799999999959</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>173611.8</v>
+        <v>174014.03999999998</v>
       </c>
       <c r="H5" s="4">
-        <v>173611.8</v>
+        <f>196747.4-22733.36</f>
+        <v>174014.03999999998</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -9356,11 +9574,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
-        <v>318630</v>
+        <v>314760</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.94</f>
-        <v>318630</v>
+        <f>(59000-5500+11000)*4.88</f>
+        <v>314760</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -9375,21 +9593,19 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>401957.9</v>
+        <v>399836.32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>26775</v>
+        <v>18018</v>
       </c>
       <c r="H8" s="4">
-        <v>18216</v>
-      </c>
-      <c r="I8" s="4">
-        <v>8559</v>
-      </c>
+        <v>18018</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -9405,10 +9621,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>56552.9</v>
+        <v>67058.320000000007</v>
       </c>
       <c r="H9" s="4">
-        <v>56552.9</v>
+        <v>67058.320000000007</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -9429,10 +9645,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>10231.620000000001</v>
+        <v>10967.53</v>
       </c>
       <c r="H10" s="4">
-        <v>10231.620000000001</v>
+        <v>10967.53</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9447,17 +9663,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>39553.32</v>
+        <v>43395.29</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>29321.7</v>
+        <v>32427.759999999998</v>
       </c>
       <c r="H11" s="4">
-        <v>29321.7</v>
+        <v>32427.759999999998</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9571,7 +9787,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>744900.19999999984</v>
+        <v>760899.20000000019</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -9611,11 +9827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:S34"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9648,7 +9864,7 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>23581.599999999999</v>
+        <v>39996.520000000004</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -9660,31 +9876,31 @@
       </c>
       <c r="F2" s="12">
         <f>配置计划!G4</f>
-        <v>50405.14</v>
+        <v>50545.75</v>
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>173611.8</v>
+        <v>174014.03999999998</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>318630</v>
+        <v>314760</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>26775</v>
+        <v>18018</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>56552.9</v>
+        <v>67058.320000000007</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>10231.620000000001</v>
+        <v>10967.53</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>29321.7</v>
+        <v>32427.759999999998</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -9704,11 +9920,11 @@
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-2209.5600000000049</v>
+        <v>-4888.7199999999939</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>744900.2</v>
+        <v>760899.20000000019</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -9955,7 +10171,7 @@
         <v>218723.05</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" ref="S7:S30" si="0">R7-R6</f>
+        <f t="shared" ref="S7:S31" si="0">R7-R6</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -11271,24 +11487,61 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="18"/>
+      <c r="B31" s="23">
+        <v>44357</v>
+      </c>
+      <c r="C31" s="17">
+        <v>39996.520000000004</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="17">
+        <v>50545.75</v>
+      </c>
+      <c r="G31" s="17">
+        <v>174014.03999999998</v>
+      </c>
+      <c r="H31" s="17">
+        <v>314760</v>
+      </c>
+      <c r="I31" s="17">
+        <v>18018</v>
+      </c>
+      <c r="J31" s="17">
+        <v>67058.320000000007</v>
+      </c>
+      <c r="K31" s="17">
+        <v>10967.53</v>
+      </c>
+      <c r="L31" s="17">
+        <v>32427.759999999998</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17">
+        <v>57000</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>-4888.7199999999939</v>
+      </c>
+      <c r="R31" s="17">
+        <v>760899.20000000019</v>
+      </c>
+      <c r="S31" s="18">
+        <f t="shared" si="0"/>
+        <v>15999.000000000233</v>
+      </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA89FA-F668-4001-AB4A-809B2594A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127515C2-D430-415E-9869-39B325DBA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2021年06月10日更新 顺道设定信用卡还款</t>
+    <t>2021年7月10日更新 顺道设定信用卡还款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1648,28 +1648,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>39996.520000000004</c:v>
+                  <c:v>8922.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67058.320000000007</c:v>
+                  <c:v>18485.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225559.78999999998</c:v>
+                  <c:v>68629.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43395.29</c:v>
+                  <c:v>46365.130000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332778</c:v>
+                  <c:v>329919</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57000</c:v>
+                  <c:v>307000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9017,6 +9017,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FB48F3-CC6F-414A-A43B-8C4288E89AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2082" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42202E2B-EBCE-49A4-AD6C-6974CBF19C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2083" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D52718-5E91-4835-B577-CFD9A3F59BD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9355,7 +9463,7 @@
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9375,8 +9483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <f>22723.36+17273.16</f>
-        <v>39996.520000000004</v>
+        <v>8922.85</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>67</v>
@@ -9420,7 +9527,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>25107.80000000001</v>
+        <v>-7837.7700000000023</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -9438,19 +9545,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>39996.520000000004</v>
+        <v>8922.85</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>67058.320000000007</v>
+        <v>18485.3</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>225559.78999999998</v>
+        <v>68629.03</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>43395.29</v>
+        <v>46365.130000000005</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -9458,7 +9565,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>332778</v>
+        <v>329919</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -9466,7 +9573,7 @@
       </c>
       <c r="S2" s="2">
         <f>E15</f>
-        <v>57000</v>
+        <v>307000</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9475,21 +9582,21 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>14888.719999999994</v>
+        <v>16760.620000000003</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>225559.78999999998</v>
+        <v>68629.03</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="4">
         <f>SUM(H3:Q3)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -9500,8 +9607,8 @@
         <v>52</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-48017.26</f>
-        <v>1982.739999999998</v>
+        <f>50000-47043.29</f>
+        <v>2956.7099999999991</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -9511,10 +9618,10 @@
       </c>
       <c r="G4" s="4">
         <f>SUM(H4:Q4)</f>
-        <v>50545.75</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>50545.75</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -9525,19 +9632,18 @@
         <v>53</v>
       </c>
       <c r="B5" s="5">
-        <f>100000-97094.02</f>
-        <v>2905.9799999999959</v>
+        <f>100000-96196.09</f>
+        <v>3803.9100000000035</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>174014.03999999998</v>
+        <v>68629.03</v>
       </c>
       <c r="H5" s="4">
-        <f>196747.4-22733.36</f>
-        <v>174014.03999999998</v>
+        <v>68629.03</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -9574,11 +9680,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
-        <v>314760</v>
+        <v>312825</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.88</f>
-        <v>314760</v>
+        <f>(59000-5500+11000)*4.85</f>
+        <v>312825</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -9593,17 +9699,17 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>399836.32</v>
+        <v>348404.3</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>18018</v>
+        <v>17094</v>
       </c>
       <c r="H8" s="4">
-        <v>18018</v>
+        <v>17094</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -9621,10 +9727,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>67058.320000000007</v>
+        <v>18485.3</v>
       </c>
       <c r="H9" s="4">
-        <v>67058.320000000007</v>
+        <v>18485.3</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -9645,10 +9751,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>10967.53</v>
+        <v>10949.66</v>
       </c>
       <c r="H10" s="4">
-        <v>10967.53</v>
+        <v>10949.66</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9663,17 +9769,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>43395.29</v>
+        <v>46365.130000000005</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>32427.759999999998</v>
+        <v>35415.47</v>
       </c>
       <c r="H11" s="4">
-        <v>32427.759999999998</v>
+        <v>35415.47</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9743,7 +9849,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>57000</v>
+        <v>307000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -9764,13 +9870,13 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:Q16)</f>
-        <v>57000</v>
+        <v>307000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
       </c>
       <c r="I16" s="4">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9787,7 +9893,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>760899.20000000019</v>
+        <v>772560.69</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -9831,7 +9937,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9864,7 +9970,7 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>39996.520000000004</v>
+        <v>8922.85</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -9872,35 +9978,35 @@
       </c>
       <c r="E2" s="12">
         <f>配置计划!G3</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>配置计划!G4</f>
-        <v>50545.75</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>174014.03999999998</v>
+        <v>68629.03</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>314760</v>
+        <v>312825</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>18018</v>
+        <v>17094</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>67058.320000000007</v>
+        <v>18485.3</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>10967.53</v>
+        <v>10949.66</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>32427.759999999998</v>
+        <v>35415.47</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -9916,15 +10022,15 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>57000</v>
+        <v>307000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-4888.7199999999939</v>
+        <v>-6760.6200000000026</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>760899.20000000019</v>
+        <v>772560.69</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -10171,7 +10277,7 @@
         <v>218723.05</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" ref="S7:S31" si="0">R7-R6</f>
+        <f t="shared" ref="S7:S32" si="0">R7-R6</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -11544,24 +11650,59 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
+      <c r="B32" s="23">
+        <v>44387</v>
+      </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18"/>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>68629.03</v>
+      </c>
+      <c r="H32" s="17">
+        <v>312825</v>
+      </c>
+      <c r="I32" s="17">
+        <v>17094</v>
+      </c>
+      <c r="J32" s="17">
+        <v>18485.3</v>
+      </c>
+      <c r="K32" s="17">
+        <v>10949.66</v>
+      </c>
+      <c r="L32" s="17">
+        <v>35415.47</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17">
+        <v>307000</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>-6760.6200000000026</v>
+      </c>
+      <c r="R32" s="17">
+        <v>772560.69</v>
+      </c>
+      <c r="S32" s="18">
+        <f t="shared" si="0"/>
+        <v>11661.489999999758</v>
+      </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>

--- a/invest/资产收益统计/资产配置.xlsx
+++ b/invest/资产收益统计/资产配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cccode\invest\资产收益统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127515C2-D430-415E-9869-39B325DBA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD27A7-0031-4AE5-87F3-6F9113839F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置计划" sheetId="1" r:id="rId1"/>
@@ -1648,28 +1648,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8922.85</c:v>
+                  <c:v>7723.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18485.3</c:v>
+                  <c:v>22207.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68629.03</c:v>
+                  <c:v>328879.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46365.130000000005</c:v>
+                  <c:v>50908.490000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>329919</c:v>
+                  <c:v>314892</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307000</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9125,6 +9125,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D52718-5E91-4835-B577-CFD9A3F59BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2084" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F4432A-AC15-46E3-B515-821809EC3D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9239250" cy="9372600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2085" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C82CFA6-41F9-4971-9712-1ADE82DF5801}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9462,8 +9570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9483,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>8922.85</v>
+        <v>7723.89</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>67</v>
@@ -9527,7 +9635,7 @@
       </c>
       <c r="B2" s="7">
         <f>B1-B3</f>
-        <v>-7837.7700000000023</v>
+        <v>-5422.7099999999909</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -9545,19 +9653,19 @@
       <c r="K2" s="4"/>
       <c r="L2" s="2">
         <f>B1</f>
-        <v>8922.85</v>
+        <v>7723.89</v>
       </c>
       <c r="M2" s="2">
         <f>G9</f>
-        <v>18485.3</v>
+        <v>22207.599999999999</v>
       </c>
       <c r="N2" s="2">
         <f>E3</f>
-        <v>68629.03</v>
+        <v>328879.18</v>
       </c>
       <c r="O2" s="2">
         <f>E11-G12</f>
-        <v>46365.130000000005</v>
+        <v>50908.490000000005</v>
       </c>
       <c r="P2" s="2">
         <f>G12</f>
@@ -9565,7 +9673,7 @@
       </c>
       <c r="Q2" s="2">
         <f>G7+G8</f>
-        <v>329919</v>
+        <v>314892</v>
       </c>
       <c r="R2" s="2">
         <f>G14</f>
@@ -9573,7 +9681,7 @@
       </c>
       <c r="S2" s="2">
         <f>E15</f>
-        <v>307000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9582,11 +9690,11 @@
       </c>
       <c r="B3" s="5">
         <f>SUM(B4:B12)</f>
-        <v>16760.620000000003</v>
+        <v>13146.599999999991</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(G2:G5)</f>
-        <v>68629.03</v>
+        <v>328879.18</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>57</v>
@@ -9607,8 +9715,8 @@
         <v>52</v>
       </c>
       <c r="B4" s="5">
-        <f>50000-47043.29</f>
-        <v>2956.7099999999991</v>
+        <f>50000-48555.05</f>
+        <v>1444.9499999999971</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -9632,18 +9740,18 @@
         <v>53</v>
       </c>
       <c r="B5" s="5">
-        <f>100000-96196.09</f>
-        <v>3803.9100000000035</v>
+        <f>100000-98298.35</f>
+        <v>1701.6499999999942</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(H5:Q5)</f>
-        <v>68629.03</v>
+        <v>328879.18</v>
       </c>
       <c r="H5" s="4">
-        <v>68629.03</v>
+        <v>328879.18</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -9680,11 +9788,11 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="0">SUM(H7:Q7)</f>
-        <v>312825</v>
+        <v>282510</v>
       </c>
       <c r="H7" s="4">
-        <f>(59000-5500+11000)*4.85</f>
-        <v>312825</v>
+        <f>(59000-5500+11000)*4.38</f>
+        <v>282510</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -9699,17 +9807,17 @@
       </c>
       <c r="E8" s="5">
         <f>SUM(G7:G9)</f>
-        <v>348404.3</v>
+        <v>337099.6</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>17094</v>
+        <v>32382</v>
       </c>
       <c r="H8" s="4">
-        <v>17094</v>
+        <v>32382</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -9727,10 +9835,10 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>18485.3</v>
+        <v>22207.599999999999</v>
       </c>
       <c r="H9" s="4">
-        <v>18485.3</v>
+        <v>22207.599999999999</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -9751,10 +9859,10 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>10949.66</v>
+        <v>11151.62</v>
       </c>
       <c r="H10" s="4">
-        <v>10949.66</v>
+        <v>11151.62</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9769,17 +9877,17 @@
       </c>
       <c r="E11" s="5">
         <f>SUM(G10:G13)</f>
-        <v>46365.130000000005</v>
+        <v>50908.490000000005</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>35415.47</v>
+        <v>39756.870000000003</v>
       </c>
       <c r="H11" s="4">
-        <v>35415.47</v>
+        <v>39756.870000000003</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9849,7 +9957,7 @@
       </c>
       <c r="E15" s="5">
         <f>SUM(G14:G16)</f>
-        <v>307000</v>
+        <v>57000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -9870,13 +9978,13 @@
       </c>
       <c r="G16" s="4">
         <f>SUM(H16:Q16)</f>
-        <v>307000</v>
+        <v>57000</v>
       </c>
       <c r="H16" s="4">
         <v>7000</v>
       </c>
       <c r="I16" s="4">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -9893,7 +10001,7 @@
       </c>
       <c r="F17" s="10">
         <f>SUM(G2:G17)+B1-B4-B5-B12</f>
-        <v>772560.69</v>
+        <v>778464.55999999994</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -9933,11 +10041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9970,7 +10078,7 @@
       </c>
       <c r="C2" s="12">
         <f>配置计划!B1</f>
-        <v>8922.85</v>
+        <v>7723.89</v>
       </c>
       <c r="D2" s="12">
         <f>配置计划!G2</f>
@@ -9986,27 +10094,27 @@
       </c>
       <c r="G2" s="12">
         <f>配置计划!G5</f>
-        <v>68629.03</v>
+        <v>328879.18</v>
       </c>
       <c r="H2" s="12">
         <f>配置计划!G7</f>
-        <v>312825</v>
+        <v>282510</v>
       </c>
       <c r="I2" s="12">
         <f>配置计划!G8</f>
-        <v>17094</v>
+        <v>32382</v>
       </c>
       <c r="J2" s="12">
         <f>配置计划!G9</f>
-        <v>18485.3</v>
+        <v>22207.599999999999</v>
       </c>
       <c r="K2" s="12">
         <f>配置计划!G10</f>
-        <v>10949.66</v>
+        <v>11151.62</v>
       </c>
       <c r="L2" s="12">
         <f>配置计划!G11</f>
-        <v>35415.47</v>
+        <v>39756.870000000003</v>
       </c>
       <c r="M2" s="12">
         <f>配置计划!G12</f>
@@ -10022,15 +10130,15 @@
       </c>
       <c r="P2" s="12">
         <f>配置计划!G16</f>
-        <v>307000</v>
+        <v>57000</v>
       </c>
       <c r="Q2" s="12">
         <f>0-配置计划!B4-配置计划!B5-配置计划!B12</f>
-        <v>-6760.6200000000026</v>
+        <v>-3146.5999999999913</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(C2:Q2)</f>
-        <v>772560.69</v>
+        <v>778464.56</v>
       </c>
       <c r="S2" s="13"/>
     </row>
@@ -10277,7 +10385,7 @@
         <v>218723.05</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" ref="S7:S32" si="0">R7-R6</f>
+        <f t="shared" ref="S7:S33" si="0">R7-R6</f>
         <v>15267.549999999988</v>
       </c>
     </row>
@@ -11653,7 +11761,9 @@
       <c r="B32" s="23">
         <v>44387</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="17">
+        <v>8922.85</v>
+      </c>
       <c r="D32" s="17">
         <v>0</v>
       </c>
@@ -11705,24 +11815,61 @@
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18"/>
+      <c r="B33" s="23">
+        <v>44418</v>
+      </c>
+      <c r="C33" s="17">
+        <v>7723.89</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <v>328879.18</v>
+      </c>
+      <c r="H33" s="17">
+        <v>282510</v>
+      </c>
+      <c r="I33" s="17">
+        <v>32382</v>
+      </c>
+      <c r="J33" s="17">
+        <v>22207.599999999999</v>
+      </c>
+      <c r="K33" s="17">
+        <v>11151.62</v>
+      </c>
+      <c r="L33" s="17">
+        <v>39756.870000000003</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17">
+        <v>57000</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>-3146.5999999999913</v>
+      </c>
+      <c r="R33" s="17">
+        <v>778464.56</v>
+      </c>
+      <c r="S33" s="18">
+        <f t="shared" si="0"/>
+        <v>5903.8700000001118</v>
+      </c>
     </row>
     <row r="34" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
